--- a/StockDay.xlsx
+++ b/StockDay.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t xml:space="preserve">Possible Equity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Euity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -129,6 +139,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,11 +533,12 @@
     <col min="2" max="2" width="15.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,83 +551,100 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>42066</v>
       </c>
-      <c r="B2" s="9">
-        <v>20000</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="12">
+        <v>26880.02</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
         <f>B2*C2</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <f>G2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>26880.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42067</v>
       </c>
       <c r="B3" s="9">
         <f>ROUND(B2*(1+C2),0)</f>
-        <v>20200</v>
+        <v>26880</v>
       </c>
       <c r="C3" s="4">
         <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D66" si="0">B3*C3</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>268.8</v>
+      </c>
+      <c r="G3" s="10">
+        <f>G2*(1+F2)</f>
+        <v>26880.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42068</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" ref="B4:B67" si="1">ROUND(B3*(1+C3),0)</f>
-        <v>20402</v>
+        <v>27149</v>
       </c>
       <c r="C4" s="4">
         <v>0.01</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>204.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>271.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42069</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="1"/>
-        <v>20606</v>
+        <v>27420</v>
       </c>
       <c r="C5" s="4">
         <v>0.01</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>206.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>274.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>42070</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="1"/>
-        <v>20812</v>
+        <v>27694</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -613,14 +653,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>42071</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" si="1"/>
-        <v>20812</v>
+        <v>27694</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -629,94 +672,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>42072</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" si="1"/>
-        <v>20812</v>
+        <v>27694</v>
       </c>
       <c r="C8" s="4">
         <v>0.01</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>208.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>276.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>42073</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="1"/>
-        <v>21020</v>
+        <v>27971</v>
       </c>
       <c r="C9" s="4">
         <v>0.01</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>210.20000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>279.70999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42074</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" si="1"/>
-        <v>21230</v>
+        <v>28251</v>
       </c>
       <c r="C10" s="4">
         <v>0.01</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>212.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42075</v>
       </c>
       <c r="B11" s="9">
         <f t="shared" si="1"/>
-        <v>21442</v>
+        <v>28534</v>
       </c>
       <c r="C11" s="4">
         <v>0.01</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>214.42000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>285.34000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42076</v>
       </c>
       <c r="B12" s="9">
         <f t="shared" si="1"/>
-        <v>21656</v>
+        <v>28819</v>
       </c>
       <c r="C12" s="4">
         <v>0.01</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>216.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>288.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>42077</v>
       </c>
       <c r="B13" s="9">
         <f t="shared" si="1"/>
-        <v>21873</v>
+        <v>29107</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -725,14 +771,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>42078</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" si="1"/>
-        <v>21873</v>
+        <v>29107</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -741,94 +790,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42079</v>
       </c>
       <c r="B15" s="9">
         <f>ROUND(B14*(1+C14),0)</f>
-        <v>21873</v>
+        <v>29107</v>
       </c>
       <c r="C15" s="4">
         <v>0.01</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>218.73000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>291.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42080</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" si="1"/>
-        <v>22092</v>
+        <v>29398</v>
       </c>
       <c r="C16" s="4">
         <v>0.01</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>220.92000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>293.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42081</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" si="1"/>
-        <v>22313</v>
+        <v>29692</v>
       </c>
       <c r="C17" s="4">
         <v>0.01</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>223.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>296.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42082</v>
       </c>
       <c r="B18" s="9">
         <f t="shared" si="1"/>
-        <v>22536</v>
+        <v>29989</v>
       </c>
       <c r="C18" s="4">
         <v>0.01</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>225.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>299.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42083</v>
       </c>
       <c r="B19" s="9">
         <f t="shared" si="1"/>
-        <v>22761</v>
+        <v>30289</v>
       </c>
       <c r="C19" s="4">
         <v>0.01</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>227.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>302.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>42084</v>
       </c>
       <c r="B20" s="9">
         <f t="shared" si="1"/>
-        <v>22989</v>
+        <v>30592</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -837,14 +889,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>42085</v>
       </c>
       <c r="B21" s="9">
         <f t="shared" si="1"/>
-        <v>22989</v>
+        <v>30592</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -853,94 +908,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42086</v>
       </c>
       <c r="B22" s="9">
         <f t="shared" si="1"/>
-        <v>22989</v>
+        <v>30592</v>
       </c>
       <c r="C22" s="4">
         <v>0.01</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>229.89000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>305.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42087</v>
       </c>
       <c r="B23" s="9">
         <f t="shared" si="1"/>
-        <v>23219</v>
+        <v>30898</v>
       </c>
       <c r="C23" s="4">
         <v>0.01</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>232.19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>308.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42088</v>
       </c>
       <c r="B24" s="9">
         <f t="shared" si="1"/>
-        <v>23451</v>
+        <v>31207</v>
       </c>
       <c r="C24" s="4">
         <v>0.01</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>234.51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>312.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42089</v>
       </c>
       <c r="B25" s="9">
         <f t="shared" si="1"/>
-        <v>23686</v>
+        <v>31519</v>
       </c>
       <c r="C25" s="4">
         <v>0.01</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>236.86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>315.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42090</v>
       </c>
       <c r="B26" s="9">
         <f t="shared" si="1"/>
-        <v>23923</v>
+        <v>31834</v>
       </c>
       <c r="C26" s="4">
         <v>0.01</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>239.23000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>318.34000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>42091</v>
       </c>
       <c r="B27" s="9">
         <f t="shared" si="1"/>
-        <v>24162</v>
+        <v>32152</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -949,14 +1007,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>42092</v>
       </c>
       <c r="B28" s="9">
         <f t="shared" si="1"/>
-        <v>24162</v>
+        <v>32152</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -965,94 +1026,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42093</v>
       </c>
       <c r="B29" s="9">
         <f t="shared" si="1"/>
-        <v>24162</v>
+        <v>32152</v>
       </c>
       <c r="C29" s="4">
         <v>0.01</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>241.62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>321.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42094</v>
       </c>
       <c r="B30" s="9">
         <f t="shared" si="1"/>
-        <v>24404</v>
+        <v>32474</v>
       </c>
       <c r="C30" s="4">
         <v>0.01</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>244.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>324.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42095</v>
       </c>
       <c r="B31" s="9">
         <f t="shared" si="1"/>
-        <v>24648</v>
+        <v>32799</v>
       </c>
       <c r="C31" s="4">
         <v>0.01</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>246.48000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>327.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42096</v>
       </c>
       <c r="B32" s="9">
         <f t="shared" si="1"/>
-        <v>24894</v>
+        <v>33127</v>
       </c>
       <c r="C32" s="4">
         <v>0.01</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>248.94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>331.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42097</v>
       </c>
       <c r="B33" s="9">
         <f t="shared" si="1"/>
-        <v>25143</v>
+        <v>33458</v>
       </c>
       <c r="C33" s="4">
         <v>0.01</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>251.43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>334.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>42098</v>
       </c>
       <c r="B34" s="9">
         <f t="shared" si="1"/>
-        <v>25394</v>
+        <v>33793</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -1061,14 +1125,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>42099</v>
       </c>
       <c r="B35" s="9">
         <f t="shared" si="1"/>
-        <v>25394</v>
+        <v>33793</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -1077,94 +1144,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42100</v>
       </c>
       <c r="B36" s="9">
         <f t="shared" si="1"/>
-        <v>25394</v>
+        <v>33793</v>
       </c>
       <c r="C36" s="4">
         <v>0.01</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>253.94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>337.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>42101</v>
       </c>
       <c r="B37" s="9">
         <f t="shared" si="1"/>
-        <v>25648</v>
+        <v>34131</v>
       </c>
       <c r="C37" s="4">
         <v>0.01</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>256.48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42102</v>
       </c>
       <c r="B38" s="9">
         <f t="shared" si="1"/>
-        <v>25904</v>
+        <v>34472</v>
       </c>
       <c r="C38" s="4">
         <v>0.01</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>259.04000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>344.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>42103</v>
       </c>
       <c r="B39" s="9">
         <f t="shared" si="1"/>
-        <v>26163</v>
+        <v>34817</v>
       </c>
       <c r="C39" s="4">
         <v>0.01</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>261.63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>348.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>42104</v>
       </c>
       <c r="B40" s="9">
         <f t="shared" si="1"/>
-        <v>26425</v>
+        <v>35165</v>
       </c>
       <c r="C40" s="4">
         <v>0.01</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>264.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>351.65000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>42105</v>
       </c>
       <c r="B41" s="9">
         <f t="shared" si="1"/>
-        <v>26689</v>
+        <v>35517</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -1173,14 +1243,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>42106</v>
       </c>
       <c r="B42" s="9">
         <f t="shared" si="1"/>
-        <v>26689</v>
+        <v>35517</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -1189,94 +1262,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42107</v>
       </c>
       <c r="B43" s="9">
         <f t="shared" si="1"/>
-        <v>26689</v>
+        <v>35517</v>
       </c>
       <c r="C43" s="4">
         <v>0.01</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>266.89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+        <v>355.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>42108</v>
       </c>
       <c r="B44" s="9">
         <f t="shared" si="1"/>
-        <v>26956</v>
+        <v>35872</v>
       </c>
       <c r="C44" s="4">
         <v>0.01</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>269.56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+        <v>358.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42109</v>
       </c>
       <c r="B45" s="9">
         <f t="shared" si="1"/>
-        <v>27226</v>
+        <v>36231</v>
       </c>
       <c r="C45" s="4">
         <v>0.01</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>272.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+        <v>362.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>42110</v>
       </c>
       <c r="B46" s="9">
         <f t="shared" si="1"/>
-        <v>27498</v>
+        <v>36593</v>
       </c>
       <c r="C46" s="4">
         <v>0.01</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>274.98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+        <v>365.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>42111</v>
       </c>
       <c r="B47" s="9">
         <f t="shared" si="1"/>
-        <v>27773</v>
+        <v>36959</v>
       </c>
       <c r="C47" s="4">
         <v>0.01</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>277.73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>369.59000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>42112</v>
       </c>
       <c r="B48" s="9">
         <f t="shared" si="1"/>
-        <v>28051</v>
+        <v>37329</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -1285,14 +1361,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>42113</v>
       </c>
       <c r="B49" s="9">
         <f t="shared" si="1"/>
-        <v>28051</v>
+        <v>37329</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -1301,94 +1380,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>42114</v>
       </c>
       <c r="B50" s="9">
         <f t="shared" si="1"/>
-        <v>28051</v>
+        <v>37329</v>
       </c>
       <c r="C50" s="4">
         <v>0.01</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>280.51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+        <v>373.29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>42115</v>
       </c>
       <c r="B51" s="9">
         <f t="shared" si="1"/>
-        <v>28332</v>
+        <v>37702</v>
       </c>
       <c r="C51" s="4">
         <v>0.01</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>283.32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+        <v>377.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>42116</v>
       </c>
       <c r="B52" s="9">
         <f t="shared" si="1"/>
-        <v>28615</v>
+        <v>38079</v>
       </c>
       <c r="C52" s="4">
         <v>0.01</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="0"/>
-        <v>286.15000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+        <v>380.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>42117</v>
       </c>
       <c r="B53" s="9">
         <f t="shared" si="1"/>
-        <v>28901</v>
+        <v>38460</v>
       </c>
       <c r="C53" s="4">
         <v>0.01</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="0"/>
-        <v>289.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+        <v>384.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>42118</v>
       </c>
       <c r="B54" s="9">
         <f t="shared" si="1"/>
-        <v>29190</v>
+        <v>38845</v>
       </c>
       <c r="C54" s="4">
         <v>0.01</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="0"/>
-        <v>291.90000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>388.45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>42119</v>
       </c>
       <c r="B55" s="9">
         <f t="shared" si="1"/>
-        <v>29482</v>
+        <v>39233</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -1397,14 +1479,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>42120</v>
       </c>
       <c r="B56" s="9">
         <f t="shared" si="1"/>
-        <v>29482</v>
+        <v>39233</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -1413,94 +1498,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>42121</v>
       </c>
       <c r="B57" s="9">
         <f t="shared" si="1"/>
-        <v>29482</v>
+        <v>39233</v>
       </c>
       <c r="C57" s="4">
         <v>0.01</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="0"/>
-        <v>294.82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+        <v>392.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>42122</v>
       </c>
       <c r="B58" s="9">
         <f t="shared" si="1"/>
-        <v>29777</v>
+        <v>39625</v>
       </c>
       <c r="C58" s="4">
         <v>0.01</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="0"/>
-        <v>297.77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+        <v>396.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>42123</v>
       </c>
       <c r="B59" s="9">
         <f t="shared" si="1"/>
-        <v>30075</v>
+        <v>40021</v>
       </c>
       <c r="C59" s="4">
         <v>0.01</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="0"/>
-        <v>300.75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+        <v>400.21000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>42124</v>
       </c>
       <c r="B60" s="9">
         <f t="shared" si="1"/>
-        <v>30376</v>
+        <v>40421</v>
       </c>
       <c r="C60" s="4">
         <v>0.01</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="0"/>
-        <v>303.76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+        <v>404.21000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>42125</v>
       </c>
       <c r="B61" s="9">
         <f t="shared" si="1"/>
-        <v>30680</v>
+        <v>40825</v>
       </c>
       <c r="C61" s="4">
         <v>0.01</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="0"/>
-        <v>306.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>408.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>42126</v>
       </c>
       <c r="B62" s="9">
         <f t="shared" si="1"/>
-        <v>30987</v>
+        <v>41233</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -1509,14 +1597,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42127</v>
       </c>
       <c r="B63" s="9">
         <f t="shared" si="1"/>
-        <v>30987</v>
+        <v>41233</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -1525,94 +1616,97 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>42128</v>
       </c>
       <c r="B64" s="9">
         <f t="shared" si="1"/>
-        <v>30987</v>
+        <v>41233</v>
       </c>
       <c r="C64" s="4">
         <v>0.01</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="0"/>
-        <v>309.87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+        <v>412.33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>42129</v>
       </c>
       <c r="B65" s="9">
         <f t="shared" si="1"/>
-        <v>31297</v>
+        <v>41645</v>
       </c>
       <c r="C65" s="4">
         <v>0.01</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="0"/>
-        <v>312.97000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+        <v>416.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>42130</v>
       </c>
       <c r="B66" s="9">
         <f t="shared" si="1"/>
-        <v>31610</v>
+        <v>42061</v>
       </c>
       <c r="C66" s="4">
         <v>0.01</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="0"/>
-        <v>316.10000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+        <v>420.61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>42131</v>
       </c>
       <c r="B67" s="9">
         <f t="shared" si="1"/>
-        <v>31926</v>
+        <v>42482</v>
       </c>
       <c r="C67" s="4">
         <v>0.01</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" ref="D67:D130" si="2">B67*C67</f>
-        <v>319.26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+        <v>424.82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>42132</v>
       </c>
       <c r="B68" s="9">
         <f t="shared" ref="B68:B131" si="3">ROUND(B67*(1+C67),0)</f>
-        <v>32245</v>
+        <v>42907</v>
       </c>
       <c r="C68" s="4">
         <v>0.01</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" si="2"/>
-        <v>322.45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>429.07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42133</v>
       </c>
       <c r="B69" s="9">
         <f t="shared" si="3"/>
-        <v>32567</v>
+        <v>43336</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -1621,14 +1715,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>42134</v>
       </c>
       <c r="B70" s="9">
         <f t="shared" si="3"/>
-        <v>32567</v>
+        <v>43336</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -1637,94 +1734,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>42135</v>
       </c>
       <c r="B71" s="9">
         <f t="shared" si="3"/>
-        <v>32567</v>
+        <v>43336</v>
       </c>
       <c r="C71" s="4">
         <v>0.01</v>
       </c>
       <c r="D71" s="3">
         <f t="shared" si="2"/>
-        <v>325.67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+        <v>433.36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>42136</v>
       </c>
       <c r="B72" s="9">
         <f t="shared" si="3"/>
-        <v>32893</v>
+        <v>43769</v>
       </c>
       <c r="C72" s="4">
         <v>0.01</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" si="2"/>
-        <v>328.93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+        <v>437.69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>42137</v>
       </c>
       <c r="B73" s="9">
         <f t="shared" si="3"/>
-        <v>33222</v>
+        <v>44207</v>
       </c>
       <c r="C73" s="4">
         <v>0.01</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" si="2"/>
-        <v>332.22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>442.07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>42138</v>
       </c>
       <c r="B74" s="9">
         <f t="shared" si="3"/>
-        <v>33554</v>
+        <v>44649</v>
       </c>
       <c r="C74" s="4">
         <v>0.01</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" si="2"/>
-        <v>335.54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+        <v>446.49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>42139</v>
       </c>
       <c r="B75" s="9">
         <f t="shared" si="3"/>
-        <v>33890</v>
+        <v>45095</v>
       </c>
       <c r="C75" s="4">
         <v>0.01</v>
       </c>
       <c r="D75" s="3">
         <f t="shared" si="2"/>
-        <v>338.90000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>450.95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>42140</v>
       </c>
       <c r="B76" s="9">
         <f t="shared" si="3"/>
-        <v>34229</v>
+        <v>45546</v>
       </c>
       <c r="C76" s="7">
         <v>0</v>
@@ -1733,14 +1833,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>42141</v>
       </c>
       <c r="B77" s="9">
         <f t="shared" si="3"/>
-        <v>34229</v>
+        <v>45546</v>
       </c>
       <c r="C77" s="7">
         <v>0</v>
@@ -1749,94 +1852,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>42142</v>
       </c>
       <c r="B78" s="9">
         <f t="shared" si="3"/>
-        <v>34229</v>
+        <v>45546</v>
       </c>
       <c r="C78" s="4">
         <v>0.01</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" si="2"/>
-        <v>342.29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+        <v>455.46000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>42143</v>
       </c>
       <c r="B79" s="9">
         <f t="shared" si="3"/>
-        <v>34571</v>
+        <v>46001</v>
       </c>
       <c r="C79" s="4">
         <v>0.01</v>
       </c>
       <c r="D79" s="3">
         <f t="shared" si="2"/>
-        <v>345.71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+        <v>460.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>42144</v>
       </c>
       <c r="B80" s="9">
         <f t="shared" si="3"/>
-        <v>34917</v>
+        <v>46461</v>
       </c>
       <c r="C80" s="4">
         <v>0.01</v>
       </c>
       <c r="D80" s="3">
         <f t="shared" si="2"/>
-        <v>349.17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+        <v>464.61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>42145</v>
       </c>
       <c r="B81" s="9">
         <f t="shared" si="3"/>
-        <v>35266</v>
+        <v>46926</v>
       </c>
       <c r="C81" s="4">
         <v>0.01</v>
       </c>
       <c r="D81" s="3">
         <f t="shared" si="2"/>
-        <v>352.66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+        <v>469.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>42146</v>
       </c>
       <c r="B82" s="9">
         <f t="shared" si="3"/>
-        <v>35619</v>
+        <v>47395</v>
       </c>
       <c r="C82" s="4">
         <v>0.01</v>
       </c>
       <c r="D82" s="3">
         <f t="shared" si="2"/>
-        <v>356.19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>473.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>42147</v>
       </c>
       <c r="B83" s="9">
         <f t="shared" si="3"/>
-        <v>35975</v>
+        <v>47869</v>
       </c>
       <c r="C83" s="7">
         <v>0</v>
@@ -1845,14 +1951,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>42148</v>
       </c>
       <c r="B84" s="9">
         <f t="shared" si="3"/>
-        <v>35975</v>
+        <v>47869</v>
       </c>
       <c r="C84" s="7">
         <v>0</v>
@@ -1861,94 +1970,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>42149</v>
       </c>
       <c r="B85" s="9">
         <f t="shared" si="3"/>
-        <v>35975</v>
+        <v>47869</v>
       </c>
       <c r="C85" s="4">
         <v>0.01</v>
       </c>
       <c r="D85" s="3">
         <f t="shared" si="2"/>
-        <v>359.75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+        <v>478.69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>42150</v>
       </c>
       <c r="B86" s="9">
         <f t="shared" si="3"/>
-        <v>36335</v>
+        <v>48348</v>
       </c>
       <c r="C86" s="4">
         <v>0.01</v>
       </c>
       <c r="D86" s="3">
         <f t="shared" si="2"/>
-        <v>363.35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+        <v>483.48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>42151</v>
       </c>
       <c r="B87" s="9">
         <f t="shared" si="3"/>
-        <v>36698</v>
+        <v>48831</v>
       </c>
       <c r="C87" s="4">
         <v>0.01</v>
       </c>
       <c r="D87" s="3">
         <f t="shared" si="2"/>
-        <v>366.98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+        <v>488.31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>42152</v>
       </c>
       <c r="B88" s="9">
         <f t="shared" si="3"/>
-        <v>37065</v>
+        <v>49319</v>
       </c>
       <c r="C88" s="4">
         <v>0.01</v>
       </c>
       <c r="D88" s="3">
         <f t="shared" si="2"/>
-        <v>370.65000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+        <v>493.19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>42153</v>
       </c>
       <c r="B89" s="9">
         <f t="shared" si="3"/>
-        <v>37436</v>
+        <v>49812</v>
       </c>
       <c r="C89" s="4">
         <v>0.01</v>
       </c>
       <c r="D89" s="3">
         <f t="shared" si="2"/>
-        <v>374.36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>498.12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>42154</v>
       </c>
       <c r="B90" s="9">
         <f t="shared" si="3"/>
-        <v>37810</v>
+        <v>50310</v>
       </c>
       <c r="C90" s="7">
         <v>0</v>
@@ -1957,14 +2069,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>42155</v>
       </c>
       <c r="B91" s="9">
         <f t="shared" si="3"/>
-        <v>37810</v>
+        <v>50310</v>
       </c>
       <c r="C91" s="7">
         <v>0</v>
@@ -1973,94 +2088,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>42156</v>
       </c>
       <c r="B92" s="9">
         <f t="shared" si="3"/>
-        <v>37810</v>
+        <v>50310</v>
       </c>
       <c r="C92" s="4">
         <v>0.01</v>
       </c>
       <c r="D92" s="3">
         <f t="shared" si="2"/>
-        <v>378.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+        <v>503.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>42157</v>
       </c>
       <c r="B93" s="9">
         <f t="shared" si="3"/>
-        <v>38188</v>
+        <v>50813</v>
       </c>
       <c r="C93" s="4">
         <v>0.01</v>
       </c>
       <c r="D93" s="3">
         <f t="shared" si="2"/>
-        <v>381.88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+        <v>508.13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>42158</v>
       </c>
       <c r="B94" s="9">
         <f t="shared" si="3"/>
-        <v>38570</v>
+        <v>51321</v>
       </c>
       <c r="C94" s="4">
         <v>0.01</v>
       </c>
       <c r="D94" s="3">
         <f t="shared" si="2"/>
-        <v>385.7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+        <v>513.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>42159</v>
       </c>
       <c r="B95" s="9">
         <f t="shared" si="3"/>
-        <v>38956</v>
+        <v>51834</v>
       </c>
       <c r="C95" s="4">
         <v>0.01</v>
       </c>
       <c r="D95" s="3">
         <f t="shared" si="2"/>
-        <v>389.56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+        <v>518.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>42160</v>
       </c>
       <c r="B96" s="9">
         <f t="shared" si="3"/>
-        <v>39346</v>
+        <v>52352</v>
       </c>
       <c r="C96" s="4">
         <v>0.01</v>
       </c>
       <c r="D96" s="3">
         <f t="shared" si="2"/>
-        <v>393.46000000000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>523.52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>42161</v>
       </c>
       <c r="B97" s="9">
         <f t="shared" si="3"/>
-        <v>39739</v>
+        <v>52876</v>
       </c>
       <c r="C97" s="7">
         <v>0</v>
@@ -2069,14 +2187,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>42162</v>
       </c>
       <c r="B98" s="9">
         <f t="shared" si="3"/>
-        <v>39739</v>
+        <v>52876</v>
       </c>
       <c r="C98" s="7">
         <v>0</v>
@@ -2085,94 +2206,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>42163</v>
       </c>
       <c r="B99" s="9">
         <f t="shared" si="3"/>
-        <v>39739</v>
+        <v>52876</v>
       </c>
       <c r="C99" s="4">
         <v>0.01</v>
       </c>
       <c r="D99" s="3">
         <f t="shared" si="2"/>
-        <v>397.39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+        <v>528.76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>42164</v>
       </c>
       <c r="B100" s="9">
         <f t="shared" si="3"/>
-        <v>40136</v>
+        <v>53405</v>
       </c>
       <c r="C100" s="4">
         <v>0.01</v>
       </c>
       <c r="D100" s="3">
         <f t="shared" si="2"/>
-        <v>401.36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+        <v>534.04999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>42165</v>
       </c>
       <c r="B101" s="9">
         <f t="shared" si="3"/>
-        <v>40537</v>
+        <v>53939</v>
       </c>
       <c r="C101" s="4">
         <v>0.01</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" si="2"/>
-        <v>405.37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+        <v>539.39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>42166</v>
       </c>
       <c r="B102" s="9">
         <f t="shared" si="3"/>
-        <v>40942</v>
+        <v>54478</v>
       </c>
       <c r="C102" s="4">
         <v>0.01</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="2"/>
-        <v>409.42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+        <v>544.78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>42167</v>
       </c>
       <c r="B103" s="9">
         <f t="shared" si="3"/>
-        <v>41351</v>
+        <v>55023</v>
       </c>
       <c r="C103" s="4">
         <v>0.01</v>
       </c>
       <c r="D103" s="3">
         <f t="shared" si="2"/>
-        <v>413.51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>550.23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>42168</v>
       </c>
       <c r="B104" s="9">
         <f t="shared" si="3"/>
-        <v>41765</v>
+        <v>55573</v>
       </c>
       <c r="C104" s="7">
         <v>0</v>
@@ -2181,14 +2305,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>42169</v>
       </c>
       <c r="B105" s="9">
         <f t="shared" si="3"/>
-        <v>41765</v>
+        <v>55573</v>
       </c>
       <c r="C105" s="7">
         <v>0</v>
@@ -2197,94 +2324,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>42170</v>
       </c>
       <c r="B106" s="9">
         <f t="shared" si="3"/>
-        <v>41765</v>
+        <v>55573</v>
       </c>
       <c r="C106" s="4">
         <v>0.01</v>
       </c>
       <c r="D106" s="3">
         <f t="shared" si="2"/>
-        <v>417.65000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+        <v>555.73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>42171</v>
       </c>
       <c r="B107" s="9">
         <f t="shared" si="3"/>
-        <v>42183</v>
+        <v>56129</v>
       </c>
       <c r="C107" s="4">
         <v>0.01</v>
       </c>
       <c r="D107" s="3">
         <f t="shared" si="2"/>
-        <v>421.83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+        <v>561.29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>42172</v>
       </c>
       <c r="B108" s="9">
         <f t="shared" si="3"/>
-        <v>42605</v>
+        <v>56690</v>
       </c>
       <c r="C108" s="4">
         <v>0.01</v>
       </c>
       <c r="D108" s="3">
         <f t="shared" si="2"/>
-        <v>426.05</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+        <v>566.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>42173</v>
       </c>
       <c r="B109" s="9">
         <f t="shared" si="3"/>
-        <v>43031</v>
+        <v>57257</v>
       </c>
       <c r="C109" s="4">
         <v>0.01</v>
       </c>
       <c r="D109" s="3">
         <f t="shared" si="2"/>
-        <v>430.31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+        <v>572.57000000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>42174</v>
       </c>
       <c r="B110" s="9">
         <f t="shared" si="3"/>
-        <v>43461</v>
+        <v>57830</v>
       </c>
       <c r="C110" s="4">
         <v>0.01</v>
       </c>
       <c r="D110" s="3">
         <f t="shared" si="2"/>
-        <v>434.61</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>578.30000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>42175</v>
       </c>
       <c r="B111" s="9">
         <f t="shared" si="3"/>
-        <v>43896</v>
+        <v>58408</v>
       </c>
       <c r="C111" s="7">
         <v>0</v>
@@ -2293,14 +2423,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>42176</v>
       </c>
       <c r="B112" s="9">
         <f t="shared" si="3"/>
-        <v>43896</v>
+        <v>58408</v>
       </c>
       <c r="C112" s="7">
         <v>0</v>
@@ -2309,94 +2442,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>42177</v>
       </c>
       <c r="B113" s="9">
         <f t="shared" si="3"/>
-        <v>43896</v>
+        <v>58408</v>
       </c>
       <c r="C113" s="4">
         <v>0.01</v>
       </c>
       <c r="D113" s="3">
         <f t="shared" si="2"/>
-        <v>438.96000000000004</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+        <v>584.08000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>42178</v>
       </c>
       <c r="B114" s="9">
         <f t="shared" si="3"/>
-        <v>44335</v>
+        <v>58992</v>
       </c>
       <c r="C114" s="4">
         <v>0.01</v>
       </c>
       <c r="D114" s="3">
         <f t="shared" si="2"/>
-        <v>443.35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+        <v>589.91999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>42179</v>
       </c>
       <c r="B115" s="9">
         <f t="shared" si="3"/>
-        <v>44778</v>
+        <v>59582</v>
       </c>
       <c r="C115" s="4">
         <v>0.01</v>
       </c>
       <c r="D115" s="3">
         <f t="shared" si="2"/>
-        <v>447.78000000000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595.82000000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>42180</v>
       </c>
       <c r="B116" s="9">
         <f t="shared" si="3"/>
-        <v>45226</v>
+        <v>60178</v>
       </c>
       <c r="C116" s="4">
         <v>0.01</v>
       </c>
       <c r="D116" s="3">
         <f t="shared" si="2"/>
-        <v>452.26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+        <v>601.78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>42181</v>
       </c>
       <c r="B117" s="9">
         <f t="shared" si="3"/>
-        <v>45678</v>
+        <v>60780</v>
       </c>
       <c r="C117" s="4">
         <v>0.01</v>
       </c>
       <c r="D117" s="3">
         <f t="shared" si="2"/>
-        <v>456.78000000000003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>607.80000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>42182</v>
       </c>
       <c r="B118" s="9">
         <f t="shared" si="3"/>
-        <v>46135</v>
+        <v>61388</v>
       </c>
       <c r="C118" s="7">
         <v>0</v>
@@ -2405,14 +2541,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>42183</v>
       </c>
       <c r="B119" s="9">
         <f t="shared" si="3"/>
-        <v>46135</v>
+        <v>61388</v>
       </c>
       <c r="C119" s="7">
         <v>0</v>
@@ -2421,94 +2560,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>42184</v>
       </c>
       <c r="B120" s="9">
         <f t="shared" si="3"/>
-        <v>46135</v>
+        <v>61388</v>
       </c>
       <c r="C120" s="4">
         <v>0.01</v>
       </c>
       <c r="D120" s="3">
         <f t="shared" si="2"/>
-        <v>461.35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+        <v>613.88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>42185</v>
       </c>
       <c r="B121" s="9">
         <f t="shared" si="3"/>
-        <v>46596</v>
+        <v>62002</v>
       </c>
       <c r="C121" s="4">
         <v>0.01</v>
       </c>
       <c r="D121" s="3">
         <f t="shared" si="2"/>
-        <v>465.96000000000004</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+        <v>620.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>42186</v>
       </c>
       <c r="B122" s="9">
         <f t="shared" si="3"/>
-        <v>47062</v>
+        <v>62622</v>
       </c>
       <c r="C122" s="4">
         <v>0.01</v>
       </c>
       <c r="D122" s="3">
         <f t="shared" si="2"/>
-        <v>470.62</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+        <v>626.22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>42187</v>
       </c>
       <c r="B123" s="9">
         <f t="shared" si="3"/>
-        <v>47533</v>
+        <v>63248</v>
       </c>
       <c r="C123" s="4">
         <v>0.01</v>
       </c>
       <c r="D123" s="3">
         <f t="shared" si="2"/>
-        <v>475.33</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+        <v>632.48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>42188</v>
       </c>
       <c r="B124" s="9">
         <f t="shared" si="3"/>
-        <v>48008</v>
+        <v>63880</v>
       </c>
       <c r="C124" s="4">
         <v>0.01</v>
       </c>
       <c r="D124" s="3">
         <f t="shared" si="2"/>
-        <v>480.08</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>638.80000000000007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>42189</v>
       </c>
       <c r="B125" s="9">
         <f t="shared" si="3"/>
-        <v>48488</v>
+        <v>64519</v>
       </c>
       <c r="C125" s="7">
         <v>0</v>
@@ -2517,14 +2659,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>42190</v>
       </c>
       <c r="B126" s="9">
         <f t="shared" si="3"/>
-        <v>48488</v>
+        <v>64519</v>
       </c>
       <c r="C126" s="7">
         <v>0</v>
@@ -2533,94 +2678,97 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>42191</v>
       </c>
       <c r="B127" s="9">
         <f t="shared" si="3"/>
-        <v>48488</v>
+        <v>64519</v>
       </c>
       <c r="C127" s="4">
         <v>0.01</v>
       </c>
       <c r="D127" s="3">
         <f t="shared" si="2"/>
-        <v>484.88</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+        <v>645.19000000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>42192</v>
       </c>
       <c r="B128" s="9">
         <f t="shared" si="3"/>
-        <v>48973</v>
+        <v>65164</v>
       </c>
       <c r="C128" s="4">
         <v>0.01</v>
       </c>
       <c r="D128" s="3">
         <f t="shared" si="2"/>
-        <v>489.73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+        <v>651.64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>42193</v>
       </c>
       <c r="B129" s="9">
         <f t="shared" si="3"/>
-        <v>49463</v>
+        <v>65816</v>
       </c>
       <c r="C129" s="4">
         <v>0.01</v>
       </c>
       <c r="D129" s="3">
         <f t="shared" si="2"/>
-        <v>494.63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+        <v>658.16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>42194</v>
       </c>
       <c r="B130" s="9">
         <f t="shared" si="3"/>
-        <v>49958</v>
+        <v>66474</v>
       </c>
       <c r="C130" s="4">
         <v>0.01</v>
       </c>
       <c r="D130" s="3">
         <f t="shared" si="2"/>
-        <v>499.58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+        <v>664.74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>42195</v>
       </c>
       <c r="B131" s="9">
         <f t="shared" si="3"/>
-        <v>50458</v>
+        <v>67139</v>
       </c>
       <c r="C131" s="4">
         <v>0.01</v>
       </c>
       <c r="D131" s="3">
         <f t="shared" ref="D131:D194" si="4">B131*C131</f>
-        <v>504.58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>671.39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>42196</v>
       </c>
       <c r="B132" s="9">
         <f t="shared" ref="B132:B195" si="5">ROUND(B131*(1+C131),0)</f>
-        <v>50963</v>
+        <v>67810</v>
       </c>
       <c r="C132" s="7">
         <v>0</v>
@@ -2629,14 +2777,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+    </row>
+    <row r="133" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>42197</v>
       </c>
       <c r="B133" s="9">
         <f t="shared" si="5"/>
-        <v>50963</v>
+        <v>67810</v>
       </c>
       <c r="C133" s="7">
         <v>0</v>
@@ -2645,94 +2796,97 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>42198</v>
       </c>
       <c r="B134" s="9">
         <f t="shared" si="5"/>
-        <v>50963</v>
+        <v>67810</v>
       </c>
       <c r="C134" s="4">
         <v>0.01</v>
       </c>
       <c r="D134" s="3">
         <f t="shared" si="4"/>
-        <v>509.63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+        <v>678.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>42199</v>
       </c>
       <c r="B135" s="9">
         <f t="shared" si="5"/>
-        <v>51473</v>
+        <v>68488</v>
       </c>
       <c r="C135" s="4">
         <v>0.01</v>
       </c>
       <c r="D135" s="3">
         <f t="shared" si="4"/>
-        <v>514.73</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+        <v>684.88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>42200</v>
       </c>
       <c r="B136" s="9">
         <f t="shared" si="5"/>
-        <v>51988</v>
+        <v>69173</v>
       </c>
       <c r="C136" s="4">
         <v>0.01</v>
       </c>
       <c r="D136" s="3">
         <f t="shared" si="4"/>
-        <v>519.88</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+        <v>691.73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>42201</v>
       </c>
       <c r="B137" s="9">
         <f t="shared" si="5"/>
-        <v>52508</v>
+        <v>69865</v>
       </c>
       <c r="C137" s="4">
         <v>0.01</v>
       </c>
       <c r="D137" s="3">
         <f t="shared" si="4"/>
-        <v>525.08000000000004</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+        <v>698.65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>42202</v>
       </c>
       <c r="B138" s="9">
         <f t="shared" si="5"/>
-        <v>53033</v>
+        <v>70564</v>
       </c>
       <c r="C138" s="4">
         <v>0.01</v>
       </c>
       <c r="D138" s="3">
         <f t="shared" si="4"/>
-        <v>530.33000000000004</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>705.64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>42203</v>
       </c>
       <c r="B139" s="9">
         <f t="shared" si="5"/>
-        <v>53563</v>
+        <v>71270</v>
       </c>
       <c r="C139" s="7">
         <v>0</v>
@@ -2741,14 +2895,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>42204</v>
       </c>
       <c r="B140" s="9">
         <f t="shared" si="5"/>
-        <v>53563</v>
+        <v>71270</v>
       </c>
       <c r="C140" s="7">
         <v>0</v>
@@ -2757,94 +2914,97 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>42205</v>
       </c>
       <c r="B141" s="9">
         <f t="shared" si="5"/>
-        <v>53563</v>
+        <v>71270</v>
       </c>
       <c r="C141" s="4">
         <v>0.01</v>
       </c>
       <c r="D141" s="3">
         <f t="shared" si="4"/>
-        <v>535.63</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+        <v>712.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>42206</v>
       </c>
       <c r="B142" s="9">
         <f t="shared" si="5"/>
-        <v>54099</v>
+        <v>71983</v>
       </c>
       <c r="C142" s="4">
         <v>0.01</v>
       </c>
       <c r="D142" s="3">
         <f t="shared" si="4"/>
-        <v>540.99</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+        <v>719.83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>42207</v>
       </c>
       <c r="B143" s="9">
         <f t="shared" si="5"/>
-        <v>54640</v>
+        <v>72703</v>
       </c>
       <c r="C143" s="4">
         <v>0.01</v>
       </c>
       <c r="D143" s="3">
         <f t="shared" si="4"/>
-        <v>546.4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+        <v>727.03</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>42208</v>
       </c>
       <c r="B144" s="9">
         <f t="shared" si="5"/>
-        <v>55186</v>
+        <v>73430</v>
       </c>
       <c r="C144" s="4">
         <v>0.01</v>
       </c>
       <c r="D144" s="3">
         <f t="shared" si="4"/>
-        <v>551.86</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+        <v>734.30000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>42209</v>
       </c>
       <c r="B145" s="9">
         <f t="shared" si="5"/>
-        <v>55738</v>
+        <v>74164</v>
       </c>
       <c r="C145" s="4">
         <v>0.01</v>
       </c>
       <c r="D145" s="3">
         <f t="shared" si="4"/>
-        <v>557.38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>741.64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>42210</v>
       </c>
       <c r="B146" s="9">
         <f t="shared" si="5"/>
-        <v>56295</v>
+        <v>74906</v>
       </c>
       <c r="C146" s="7">
         <v>0</v>
@@ -2853,14 +3013,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+    </row>
+    <row r="147" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>42211</v>
       </c>
       <c r="B147" s="9">
         <f t="shared" si="5"/>
-        <v>56295</v>
+        <v>74906</v>
       </c>
       <c r="C147" s="7">
         <v>0</v>
@@ -2869,94 +3032,97 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>42212</v>
       </c>
       <c r="B148" s="9">
         <f t="shared" si="5"/>
-        <v>56295</v>
+        <v>74906</v>
       </c>
       <c r="C148" s="4">
         <v>0.01</v>
       </c>
       <c r="D148" s="3">
         <f t="shared" si="4"/>
-        <v>562.95000000000005</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+        <v>749.06000000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>42213</v>
       </c>
       <c r="B149" s="9">
         <f t="shared" si="5"/>
-        <v>56858</v>
+        <v>75655</v>
       </c>
       <c r="C149" s="4">
         <v>0.01</v>
       </c>
       <c r="D149" s="3">
         <f t="shared" si="4"/>
-        <v>568.58000000000004</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+        <v>756.55000000000007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>42214</v>
       </c>
       <c r="B150" s="9">
         <f t="shared" si="5"/>
-        <v>57427</v>
+        <v>76412</v>
       </c>
       <c r="C150" s="4">
         <v>0.01</v>
       </c>
       <c r="D150" s="3">
         <f t="shared" si="4"/>
-        <v>574.27</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+        <v>764.12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>42215</v>
       </c>
       <c r="B151" s="9">
         <f t="shared" si="5"/>
-        <v>58001</v>
+        <v>77176</v>
       </c>
       <c r="C151" s="4">
         <v>0.01</v>
       </c>
       <c r="D151" s="3">
         <f t="shared" si="4"/>
-        <v>580.01</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+        <v>771.76</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>42216</v>
       </c>
       <c r="B152" s="9">
         <f t="shared" si="5"/>
-        <v>58581</v>
+        <v>77948</v>
       </c>
       <c r="C152" s="4">
         <v>0.01</v>
       </c>
       <c r="D152" s="3">
         <f t="shared" si="4"/>
-        <v>585.81000000000006</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>779.48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>42217</v>
       </c>
       <c r="B153" s="9">
         <f t="shared" si="5"/>
-        <v>59167</v>
+        <v>78727</v>
       </c>
       <c r="C153" s="7">
         <v>0</v>
@@ -2965,14 +3131,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+    </row>
+    <row r="154" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>42218</v>
       </c>
       <c r="B154" s="9">
         <f t="shared" si="5"/>
-        <v>59167</v>
+        <v>78727</v>
       </c>
       <c r="C154" s="7">
         <v>0</v>
@@ -2981,94 +3150,97 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>42219</v>
       </c>
       <c r="B155" s="9">
         <f t="shared" si="5"/>
-        <v>59167</v>
+        <v>78727</v>
       </c>
       <c r="C155" s="4">
         <v>0.01</v>
       </c>
       <c r="D155" s="3">
         <f t="shared" si="4"/>
-        <v>591.66999999999996</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+        <v>787.27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>42220</v>
       </c>
       <c r="B156" s="9">
         <f t="shared" si="5"/>
-        <v>59759</v>
+        <v>79514</v>
       </c>
       <c r="C156" s="4">
         <v>0.01</v>
       </c>
       <c r="D156" s="3">
         <f t="shared" si="4"/>
-        <v>597.59</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+        <v>795.14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>42221</v>
       </c>
       <c r="B157" s="9">
         <f t="shared" si="5"/>
-        <v>60357</v>
+        <v>80309</v>
       </c>
       <c r="C157" s="4">
         <v>0.01</v>
       </c>
       <c r="D157" s="3">
         <f t="shared" si="4"/>
-        <v>603.57000000000005</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+        <v>803.09</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>42222</v>
       </c>
       <c r="B158" s="9">
         <f t="shared" si="5"/>
-        <v>60961</v>
+        <v>81112</v>
       </c>
       <c r="C158" s="4">
         <v>0.01</v>
       </c>
       <c r="D158" s="3">
         <f t="shared" si="4"/>
-        <v>609.61</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+        <v>811.12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>42223</v>
       </c>
       <c r="B159" s="9">
         <f t="shared" si="5"/>
-        <v>61571</v>
+        <v>81923</v>
       </c>
       <c r="C159" s="4">
         <v>0.01</v>
       </c>
       <c r="D159" s="3">
         <f t="shared" si="4"/>
-        <v>615.71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>819.23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>42224</v>
       </c>
       <c r="B160" s="9">
         <f t="shared" si="5"/>
-        <v>62187</v>
+        <v>82742</v>
       </c>
       <c r="C160" s="7">
         <v>0</v>
@@ -3077,14 +3249,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+    </row>
+    <row r="161" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="5">
         <v>42225</v>
       </c>
       <c r="B161" s="9">
         <f t="shared" si="5"/>
-        <v>62187</v>
+        <v>82742</v>
       </c>
       <c r="C161" s="7">
         <v>0</v>
@@ -3093,245 +3268,248 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>42226</v>
       </c>
       <c r="B162" s="9">
         <f t="shared" si="5"/>
-        <v>62187</v>
+        <v>82742</v>
       </c>
       <c r="C162" s="4">
         <v>0.01</v>
       </c>
       <c r="D162" s="3">
         <f t="shared" si="4"/>
-        <v>621.87</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+        <v>827.42000000000007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>42227</v>
       </c>
       <c r="B163" s="9">
         <f t="shared" si="5"/>
-        <v>62809</v>
+        <v>83569</v>
       </c>
       <c r="C163" s="4">
         <v>0.01</v>
       </c>
       <c r="D163" s="3">
         <f t="shared" si="4"/>
-        <v>628.09</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+        <v>835.69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>42228</v>
       </c>
       <c r="B164" s="9">
         <f t="shared" si="5"/>
-        <v>63437</v>
+        <v>84405</v>
       </c>
       <c r="C164" s="4">
         <v>0.01</v>
       </c>
       <c r="D164" s="3">
         <f t="shared" si="4"/>
-        <v>634.37</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+        <v>844.05000000000007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>42229</v>
       </c>
       <c r="B165" s="9">
         <f t="shared" si="5"/>
-        <v>64071</v>
+        <v>85249</v>
       </c>
       <c r="C165" s="4">
         <v>0.01</v>
       </c>
       <c r="D165" s="3">
         <f t="shared" si="4"/>
-        <v>640.71</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+        <v>852.49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>42230</v>
       </c>
       <c r="B166" s="9">
         <f t="shared" si="5"/>
-        <v>64712</v>
+        <v>86101</v>
       </c>
       <c r="C166" s="4">
         <v>0.01</v>
       </c>
       <c r="D166" s="3">
         <f t="shared" si="4"/>
-        <v>647.12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+        <v>861.01</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>42231</v>
       </c>
       <c r="B167" s="9">
         <f t="shared" si="5"/>
-        <v>65359</v>
-      </c>
-      <c r="C167" s="4">
-        <v>0.01</v>
+        <v>86962</v>
+      </c>
+      <c r="C167" s="7">
+        <v>0</v>
       </c>
       <c r="D167" s="3">
         <f t="shared" si="4"/>
-        <v>653.59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>42232</v>
       </c>
       <c r="B168" s="9">
         <f t="shared" si="5"/>
-        <v>66013</v>
-      </c>
-      <c r="C168" s="4">
-        <v>0.01</v>
+        <v>86962</v>
+      </c>
+      <c r="C168" s="7">
+        <v>0</v>
       </c>
       <c r="D168" s="3">
         <f t="shared" si="4"/>
-        <v>660.13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>42233</v>
       </c>
       <c r="B169" s="9">
         <f t="shared" si="5"/>
-        <v>66673</v>
+        <v>86962</v>
       </c>
       <c r="C169" s="4">
         <v>0.01</v>
       </c>
       <c r="D169" s="3">
         <f t="shared" si="4"/>
-        <v>666.73</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+        <v>869.62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>42234</v>
       </c>
       <c r="B170" s="9">
         <f t="shared" si="5"/>
-        <v>67340</v>
+        <v>87832</v>
       </c>
       <c r="C170" s="4">
         <v>0.01</v>
       </c>
       <c r="D170" s="3">
         <f t="shared" si="4"/>
-        <v>673.4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+        <v>878.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>42235</v>
       </c>
       <c r="B171" s="9">
         <f t="shared" si="5"/>
-        <v>68013</v>
+        <v>88710</v>
       </c>
       <c r="C171" s="4">
         <v>0.01</v>
       </c>
       <c r="D171" s="3">
         <f t="shared" si="4"/>
-        <v>680.13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+        <v>887.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>42236</v>
       </c>
       <c r="B172" s="9">
         <f t="shared" si="5"/>
-        <v>68693</v>
+        <v>89597</v>
       </c>
       <c r="C172" s="4">
         <v>0.01</v>
       </c>
       <c r="D172" s="3">
         <f t="shared" si="4"/>
-        <v>686.93000000000006</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+        <v>895.97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>42237</v>
       </c>
       <c r="B173" s="9">
         <f t="shared" si="5"/>
-        <v>69380</v>
+        <v>90493</v>
       </c>
       <c r="C173" s="4">
         <v>0.01</v>
       </c>
       <c r="D173" s="3">
         <f t="shared" si="4"/>
-        <v>693.80000000000007</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+        <v>904.93000000000006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>42238</v>
       </c>
       <c r="B174" s="9">
         <f t="shared" si="5"/>
-        <v>70074</v>
-      </c>
-      <c r="C174" s="4">
-        <v>0.01</v>
+        <v>91398</v>
+      </c>
+      <c r="C174" s="7">
+        <v>0</v>
       </c>
       <c r="D174" s="3">
         <f t="shared" si="4"/>
-        <v>700.74</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>42239</v>
       </c>
       <c r="B175" s="9">
         <f t="shared" si="5"/>
-        <v>70775</v>
-      </c>
-      <c r="C175" s="4">
-        <v>0.01</v>
+        <v>91398</v>
+      </c>
+      <c r="C175" s="7">
+        <v>0</v>
       </c>
       <c r="D175" s="3">
         <f t="shared" si="4"/>
-        <v>707.75</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>42240</v>
       </c>
       <c r="B176" s="9">
         <f t="shared" si="5"/>
-        <v>71483</v>
+        <v>91398</v>
       </c>
       <c r="C176" s="4">
         <v>0.01</v>
       </c>
       <c r="D176" s="3">
         <f t="shared" si="4"/>
-        <v>714.83</v>
+        <v>913.98</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -3340,14 +3518,14 @@
       </c>
       <c r="B177" s="9">
         <f t="shared" si="5"/>
-        <v>72198</v>
+        <v>92312</v>
       </c>
       <c r="C177" s="4">
         <v>0.01</v>
       </c>
       <c r="D177" s="3">
         <f t="shared" si="4"/>
-        <v>721.98</v>
+        <v>923.12</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
@@ -3356,14 +3534,14 @@
       </c>
       <c r="B178" s="9">
         <f t="shared" si="5"/>
-        <v>72920</v>
+        <v>93235</v>
       </c>
       <c r="C178" s="4">
         <v>0.01</v>
       </c>
       <c r="D178" s="3">
         <f t="shared" si="4"/>
-        <v>729.2</v>
+        <v>932.35</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
@@ -3372,14 +3550,14 @@
       </c>
       <c r="B179" s="9">
         <f t="shared" si="5"/>
-        <v>73649</v>
+        <v>94167</v>
       </c>
       <c r="C179" s="4">
         <v>0.01</v>
       </c>
       <c r="D179" s="3">
         <f t="shared" si="4"/>
-        <v>736.49</v>
+        <v>941.67000000000007</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
@@ -3388,14 +3566,14 @@
       </c>
       <c r="B180" s="9">
         <f t="shared" si="5"/>
-        <v>74385</v>
+        <v>95109</v>
       </c>
       <c r="C180" s="4">
         <v>0.01</v>
       </c>
       <c r="D180" s="3">
         <f t="shared" si="4"/>
-        <v>743.85</v>
+        <v>951.09</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -3404,14 +3582,14 @@
       </c>
       <c r="B181" s="9">
         <f t="shared" si="5"/>
-        <v>75129</v>
-      </c>
-      <c r="C181" s="4">
-        <v>0.01</v>
+        <v>96060</v>
+      </c>
+      <c r="C181" s="7">
+        <v>0</v>
       </c>
       <c r="D181" s="3">
         <f t="shared" si="4"/>
-        <v>751.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -3420,14 +3598,14 @@
       </c>
       <c r="B182" s="9">
         <f t="shared" si="5"/>
-        <v>75880</v>
-      </c>
-      <c r="C182" s="4">
-        <v>0.01</v>
+        <v>96060</v>
+      </c>
+      <c r="C182" s="7">
+        <v>0</v>
       </c>
       <c r="D182" s="3">
         <f t="shared" si="4"/>
-        <v>758.80000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -3436,14 +3614,14 @@
       </c>
       <c r="B183" s="9">
         <f t="shared" si="5"/>
-        <v>76639</v>
+        <v>96060</v>
       </c>
       <c r="C183" s="4">
         <v>0.01</v>
       </c>
       <c r="D183" s="3">
         <f t="shared" si="4"/>
-        <v>766.39</v>
+        <v>960.6</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
@@ -3452,14 +3630,14 @@
       </c>
       <c r="B184" s="9">
         <f t="shared" si="5"/>
-        <v>77405</v>
+        <v>97021</v>
       </c>
       <c r="C184" s="4">
         <v>0.01</v>
       </c>
       <c r="D184" s="3">
         <f t="shared" si="4"/>
-        <v>774.05000000000007</v>
+        <v>970.21</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -3468,14 +3646,14 @@
       </c>
       <c r="B185" s="9">
         <f t="shared" si="5"/>
-        <v>78179</v>
+        <v>97991</v>
       </c>
       <c r="C185" s="4">
         <v>0.01</v>
       </c>
       <c r="D185" s="3">
         <f t="shared" si="4"/>
-        <v>781.79</v>
+        <v>979.91</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
@@ -3484,14 +3662,14 @@
       </c>
       <c r="B186" s="9">
         <f t="shared" si="5"/>
-        <v>78961</v>
+        <v>98971</v>
       </c>
       <c r="C186" s="4">
         <v>0.01</v>
       </c>
       <c r="D186" s="3">
         <f t="shared" si="4"/>
-        <v>789.61</v>
+        <v>989.71</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
@@ -3500,14 +3678,14 @@
       </c>
       <c r="B187" s="9">
         <f t="shared" si="5"/>
-        <v>79751</v>
+        <v>99961</v>
       </c>
       <c r="C187" s="4">
         <v>0.01</v>
       </c>
       <c r="D187" s="3">
         <f t="shared" si="4"/>
-        <v>797.51</v>
+        <v>999.61</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
@@ -3516,14 +3694,14 @@
       </c>
       <c r="B188" s="9">
         <f t="shared" si="5"/>
-        <v>80549</v>
-      </c>
-      <c r="C188" s="4">
-        <v>0.01</v>
+        <v>100961</v>
+      </c>
+      <c r="C188" s="7">
+        <v>0</v>
       </c>
       <c r="D188" s="3">
         <f t="shared" si="4"/>
-        <v>805.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
@@ -3532,14 +3710,14 @@
       </c>
       <c r="B189" s="9">
         <f t="shared" si="5"/>
-        <v>81354</v>
-      </c>
-      <c r="C189" s="4">
-        <v>0.01</v>
+        <v>100961</v>
+      </c>
+      <c r="C189" s="7">
+        <v>0</v>
       </c>
       <c r="D189" s="3">
         <f t="shared" si="4"/>
-        <v>813.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
@@ -3548,14 +3726,14 @@
       </c>
       <c r="B190" s="9">
         <f t="shared" si="5"/>
-        <v>82168</v>
+        <v>100961</v>
       </c>
       <c r="C190" s="4">
         <v>0.01</v>
       </c>
       <c r="D190" s="3">
         <f t="shared" si="4"/>
-        <v>821.68000000000006</v>
+        <v>1009.61</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
@@ -3564,14 +3742,14 @@
       </c>
       <c r="B191" s="9">
         <f t="shared" si="5"/>
-        <v>82990</v>
+        <v>101971</v>
       </c>
       <c r="C191" s="4">
         <v>0.01</v>
       </c>
       <c r="D191" s="3">
         <f t="shared" si="4"/>
-        <v>829.9</v>
+        <v>1019.71</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
@@ -3580,14 +3758,14 @@
       </c>
       <c r="B192" s="9">
         <f t="shared" si="5"/>
-        <v>83820</v>
+        <v>102991</v>
       </c>
       <c r="C192" s="4">
         <v>0.01</v>
       </c>
       <c r="D192" s="3">
         <f t="shared" si="4"/>
-        <v>838.2</v>
+        <v>1029.9100000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
@@ -3596,14 +3774,14 @@
       </c>
       <c r="B193" s="9">
         <f t="shared" si="5"/>
-        <v>84658</v>
+        <v>104021</v>
       </c>
       <c r="C193" s="4">
         <v>0.01</v>
       </c>
       <c r="D193" s="3">
         <f t="shared" si="4"/>
-        <v>846.58</v>
+        <v>1040.21</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
@@ -3612,14 +3790,14 @@
       </c>
       <c r="B194" s="9">
         <f t="shared" si="5"/>
-        <v>85505</v>
+        <v>105061</v>
       </c>
       <c r="C194" s="4">
         <v>0.01</v>
       </c>
       <c r="D194" s="3">
         <f t="shared" si="4"/>
-        <v>855.05000000000007</v>
+        <v>1050.6100000000001</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
@@ -3628,14 +3806,14 @@
       </c>
       <c r="B195" s="9">
         <f t="shared" si="5"/>
-        <v>86360</v>
-      </c>
-      <c r="C195" s="4">
-        <v>0.01</v>
+        <v>106112</v>
+      </c>
+      <c r="C195" s="7">
+        <v>0</v>
       </c>
       <c r="D195" s="3">
         <f t="shared" ref="D195:D258" si="6">B195*C195</f>
-        <v>863.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
@@ -3644,14 +3822,14 @@
       </c>
       <c r="B196" s="9">
         <f t="shared" ref="B196:B259" si="7">ROUND(B195*(1+C195),0)</f>
-        <v>87224</v>
-      </c>
-      <c r="C196" s="4">
-        <v>0.01</v>
+        <v>106112</v>
+      </c>
+      <c r="C196" s="7">
+        <v>0</v>
       </c>
       <c r="D196" s="3">
         <f t="shared" si="6"/>
-        <v>872.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -3660,14 +3838,14 @@
       </c>
       <c r="B197" s="9">
         <f t="shared" si="7"/>
-        <v>88096</v>
+        <v>106112</v>
       </c>
       <c r="C197" s="4">
         <v>0.01</v>
       </c>
       <c r="D197" s="3">
         <f t="shared" si="6"/>
-        <v>880.96</v>
+        <v>1061.1200000000001</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
@@ -3676,14 +3854,14 @@
       </c>
       <c r="B198" s="9">
         <f t="shared" si="7"/>
-        <v>88977</v>
+        <v>107173</v>
       </c>
       <c r="C198" s="4">
         <v>0.01</v>
       </c>
       <c r="D198" s="3">
         <f t="shared" si="6"/>
-        <v>889.77</v>
+        <v>1071.73</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
@@ -3692,14 +3870,14 @@
       </c>
       <c r="B199" s="9">
         <f t="shared" si="7"/>
-        <v>89867</v>
+        <v>108245</v>
       </c>
       <c r="C199" s="4">
         <v>0.01</v>
       </c>
       <c r="D199" s="3">
         <f t="shared" si="6"/>
-        <v>898.67000000000007</v>
+        <v>1082.45</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
@@ -3708,14 +3886,14 @@
       </c>
       <c r="B200" s="9">
         <f t="shared" si="7"/>
-        <v>90766</v>
+        <v>109327</v>
       </c>
       <c r="C200" s="4">
         <v>0.01</v>
       </c>
       <c r="D200" s="3">
         <f t="shared" si="6"/>
-        <v>907.66</v>
+        <v>1093.27</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
@@ -3724,14 +3902,14 @@
       </c>
       <c r="B201" s="9">
         <f t="shared" si="7"/>
-        <v>91674</v>
+        <v>110420</v>
       </c>
       <c r="C201" s="4">
         <v>0.01</v>
       </c>
       <c r="D201" s="3">
         <f t="shared" si="6"/>
-        <v>916.74</v>
+        <v>1104.2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -3740,14 +3918,14 @@
       </c>
       <c r="B202" s="9">
         <f t="shared" si="7"/>
-        <v>92591</v>
-      </c>
-      <c r="C202" s="4">
-        <v>0.01</v>
+        <v>111524</v>
+      </c>
+      <c r="C202" s="7">
+        <v>0</v>
       </c>
       <c r="D202" s="3">
         <f t="shared" si="6"/>
-        <v>925.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
@@ -3756,14 +3934,14 @@
       </c>
       <c r="B203" s="9">
         <f t="shared" si="7"/>
-        <v>93517</v>
-      </c>
-      <c r="C203" s="4">
-        <v>0.01</v>
+        <v>111524</v>
+      </c>
+      <c r="C203" s="7">
+        <v>0</v>
       </c>
       <c r="D203" s="3">
         <f t="shared" si="6"/>
-        <v>935.17000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -3772,14 +3950,14 @@
       </c>
       <c r="B204" s="9">
         <f t="shared" si="7"/>
-        <v>94452</v>
+        <v>111524</v>
       </c>
       <c r="C204" s="4">
         <v>0.01</v>
       </c>
       <c r="D204" s="3">
         <f t="shared" si="6"/>
-        <v>944.52</v>
+        <v>1115.24</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -3788,14 +3966,14 @@
       </c>
       <c r="B205" s="9">
         <f t="shared" si="7"/>
-        <v>95397</v>
+        <v>112639</v>
       </c>
       <c r="C205" s="4">
         <v>0.01</v>
       </c>
       <c r="D205" s="3">
         <f t="shared" si="6"/>
-        <v>953.97</v>
+        <v>1126.3900000000001</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -3804,14 +3982,14 @@
       </c>
       <c r="B206" s="9">
         <f t="shared" si="7"/>
-        <v>96351</v>
+        <v>113765</v>
       </c>
       <c r="C206" s="4">
         <v>0.01</v>
       </c>
       <c r="D206" s="3">
         <f t="shared" si="6"/>
-        <v>963.51</v>
+        <v>1137.6500000000001</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -3820,14 +3998,14 @@
       </c>
       <c r="B207" s="9">
         <f t="shared" si="7"/>
-        <v>97315</v>
+        <v>114903</v>
       </c>
       <c r="C207" s="4">
         <v>0.01</v>
       </c>
       <c r="D207" s="3">
         <f t="shared" si="6"/>
-        <v>973.15</v>
+        <v>1149.03</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -3836,14 +4014,14 @@
       </c>
       <c r="B208" s="9">
         <f t="shared" si="7"/>
-        <v>98288</v>
+        <v>116052</v>
       </c>
       <c r="C208" s="4">
         <v>0.01</v>
       </c>
       <c r="D208" s="3">
         <f t="shared" si="6"/>
-        <v>982.88</v>
+        <v>1160.52</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
@@ -3852,14 +4030,14 @@
       </c>
       <c r="B209" s="9">
         <f t="shared" si="7"/>
-        <v>99271</v>
-      </c>
-      <c r="C209" s="4">
-        <v>0.01</v>
+        <v>117213</v>
+      </c>
+      <c r="C209" s="7">
+        <v>0</v>
       </c>
       <c r="D209" s="3">
         <f t="shared" si="6"/>
-        <v>992.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -3868,14 +4046,14 @@
       </c>
       <c r="B210" s="9">
         <f t="shared" si="7"/>
-        <v>100264</v>
-      </c>
-      <c r="C210" s="4">
-        <v>0.01</v>
+        <v>117213</v>
+      </c>
+      <c r="C210" s="7">
+        <v>0</v>
       </c>
       <c r="D210" s="3">
         <f t="shared" si="6"/>
-        <v>1002.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
@@ -3884,14 +4062,14 @@
       </c>
       <c r="B211" s="9">
         <f t="shared" si="7"/>
-        <v>101267</v>
+        <v>117213</v>
       </c>
       <c r="C211" s="4">
         <v>0.01</v>
       </c>
       <c r="D211" s="3">
         <f t="shared" si="6"/>
-        <v>1012.6700000000001</v>
+        <v>1172.1300000000001</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
@@ -3900,14 +4078,14 @@
       </c>
       <c r="B212" s="9">
         <f t="shared" si="7"/>
-        <v>102280</v>
+        <v>118385</v>
       </c>
       <c r="C212" s="4">
         <v>0.01</v>
       </c>
       <c r="D212" s="3">
         <f t="shared" si="6"/>
-        <v>1022.8000000000001</v>
+        <v>1183.8500000000001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
@@ -3916,14 +4094,14 @@
       </c>
       <c r="B213" s="9">
         <f t="shared" si="7"/>
-        <v>103303</v>
+        <v>119569</v>
       </c>
       <c r="C213" s="4">
         <v>0.01</v>
       </c>
       <c r="D213" s="3">
         <f t="shared" si="6"/>
-        <v>1033.03</v>
+        <v>1195.69</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
@@ -3932,14 +4110,14 @@
       </c>
       <c r="B214" s="9">
         <f t="shared" si="7"/>
-        <v>104336</v>
+        <v>120765</v>
       </c>
       <c r="C214" s="4">
         <v>0.01</v>
       </c>
       <c r="D214" s="3">
         <f t="shared" si="6"/>
-        <v>1043.3600000000001</v>
+        <v>1207.6500000000001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
@@ -3948,14 +4126,14 @@
       </c>
       <c r="B215" s="9">
         <f t="shared" si="7"/>
-        <v>105379</v>
+        <v>121973</v>
       </c>
       <c r="C215" s="4">
         <v>0.01</v>
       </c>
       <c r="D215" s="3">
         <f t="shared" si="6"/>
-        <v>1053.79</v>
+        <v>1219.73</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
@@ -3964,14 +4142,14 @@
       </c>
       <c r="B216" s="9">
         <f t="shared" si="7"/>
-        <v>106433</v>
-      </c>
-      <c r="C216" s="4">
-        <v>0.01</v>
+        <v>123193</v>
+      </c>
+      <c r="C216" s="7">
+        <v>0</v>
       </c>
       <c r="D216" s="3">
         <f t="shared" si="6"/>
-        <v>1064.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
@@ -3980,14 +4158,14 @@
       </c>
       <c r="B217" s="9">
         <f t="shared" si="7"/>
-        <v>107497</v>
-      </c>
-      <c r="C217" s="4">
-        <v>0.01</v>
+        <v>123193</v>
+      </c>
+      <c r="C217" s="7">
+        <v>0</v>
       </c>
       <c r="D217" s="3">
         <f t="shared" si="6"/>
-        <v>1074.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
@@ -3996,14 +4174,14 @@
       </c>
       <c r="B218" s="9">
         <f t="shared" si="7"/>
-        <v>108572</v>
+        <v>123193</v>
       </c>
       <c r="C218" s="4">
         <v>0.01</v>
       </c>
       <c r="D218" s="3">
         <f t="shared" si="6"/>
-        <v>1085.72</v>
+        <v>1231.93</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
@@ -4012,14 +4190,14 @@
       </c>
       <c r="B219" s="9">
         <f t="shared" si="7"/>
-        <v>109658</v>
+        <v>124425</v>
       </c>
       <c r="C219" s="4">
         <v>0.01</v>
       </c>
       <c r="D219" s="3">
         <f t="shared" si="6"/>
-        <v>1096.58</v>
+        <v>1244.25</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
@@ -4028,14 +4206,14 @@
       </c>
       <c r="B220" s="9">
         <f t="shared" si="7"/>
-        <v>110755</v>
+        <v>125669</v>
       </c>
       <c r="C220" s="4">
         <v>0.01</v>
       </c>
       <c r="D220" s="3">
         <f t="shared" si="6"/>
-        <v>1107.55</v>
+        <v>1256.69</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -4044,14 +4222,14 @@
       </c>
       <c r="B221" s="9">
         <f t="shared" si="7"/>
-        <v>111863</v>
+        <v>126926</v>
       </c>
       <c r="C221" s="4">
         <v>0.01</v>
       </c>
       <c r="D221" s="3">
         <f t="shared" si="6"/>
-        <v>1118.6300000000001</v>
+        <v>1269.26</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
@@ -4060,14 +4238,14 @@
       </c>
       <c r="B222" s="9">
         <f t="shared" si="7"/>
-        <v>112982</v>
+        <v>128195</v>
       </c>
       <c r="C222" s="4">
         <v>0.01</v>
       </c>
       <c r="D222" s="3">
         <f t="shared" si="6"/>
-        <v>1129.82</v>
+        <v>1281.95</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -4076,14 +4254,14 @@
       </c>
       <c r="B223" s="9">
         <f t="shared" si="7"/>
-        <v>114112</v>
-      </c>
-      <c r="C223" s="4">
-        <v>0.01</v>
+        <v>129477</v>
+      </c>
+      <c r="C223" s="7">
+        <v>0</v>
       </c>
       <c r="D223" s="3">
         <f t="shared" si="6"/>
-        <v>1141.1200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -4092,14 +4270,14 @@
       </c>
       <c r="B224" s="9">
         <f t="shared" si="7"/>
-        <v>115253</v>
-      </c>
-      <c r="C224" s="4">
-        <v>0.01</v>
+        <v>129477</v>
+      </c>
+      <c r="C224" s="7">
+        <v>0</v>
       </c>
       <c r="D224" s="3">
         <f t="shared" si="6"/>
-        <v>1152.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
@@ -4108,14 +4286,14 @@
       </c>
       <c r="B225" s="9">
         <f t="shared" si="7"/>
-        <v>116406</v>
+        <v>129477</v>
       </c>
       <c r="C225" s="4">
         <v>0.01</v>
       </c>
       <c r="D225" s="3">
         <f t="shared" si="6"/>
-        <v>1164.06</v>
+        <v>1294.77</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
@@ -4124,14 +4302,14 @@
       </c>
       <c r="B226" s="9">
         <f t="shared" si="7"/>
-        <v>117570</v>
+        <v>130772</v>
       </c>
       <c r="C226" s="4">
         <v>0.01</v>
       </c>
       <c r="D226" s="3">
         <f t="shared" si="6"/>
-        <v>1175.7</v>
+        <v>1307.72</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
@@ -4140,14 +4318,14 @@
       </c>
       <c r="B227" s="9">
         <f t="shared" si="7"/>
-        <v>118746</v>
+        <v>132080</v>
       </c>
       <c r="C227" s="4">
         <v>0.01</v>
       </c>
       <c r="D227" s="3">
         <f t="shared" si="6"/>
-        <v>1187.46</v>
+        <v>1320.8</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
@@ -4156,14 +4334,14 @@
       </c>
       <c r="B228" s="9">
         <f t="shared" si="7"/>
-        <v>119933</v>
+        <v>133401</v>
       </c>
       <c r="C228" s="4">
         <v>0.01</v>
       </c>
       <c r="D228" s="3">
         <f t="shared" si="6"/>
-        <v>1199.33</v>
+        <v>1334.01</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
@@ -4172,14 +4350,14 @@
       </c>
       <c r="B229" s="9">
         <f t="shared" si="7"/>
-        <v>121132</v>
+        <v>134735</v>
       </c>
       <c r="C229" s="4">
         <v>0.01</v>
       </c>
       <c r="D229" s="3">
         <f t="shared" si="6"/>
-        <v>1211.32</v>
+        <v>1347.3500000000001</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
@@ -4188,14 +4366,14 @@
       </c>
       <c r="B230" s="9">
         <f t="shared" si="7"/>
-        <v>122343</v>
-      </c>
-      <c r="C230" s="4">
-        <v>0.01</v>
+        <v>136082</v>
+      </c>
+      <c r="C230" s="7">
+        <v>0</v>
       </c>
       <c r="D230" s="3">
         <f t="shared" si="6"/>
-        <v>1223.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
@@ -4204,14 +4382,14 @@
       </c>
       <c r="B231" s="9">
         <f t="shared" si="7"/>
-        <v>123566</v>
-      </c>
-      <c r="C231" s="4">
-        <v>0.01</v>
+        <v>136082</v>
+      </c>
+      <c r="C231" s="7">
+        <v>0</v>
       </c>
       <c r="D231" s="3">
         <f t="shared" si="6"/>
-        <v>1235.6600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
@@ -4220,14 +4398,14 @@
       </c>
       <c r="B232" s="9">
         <f t="shared" si="7"/>
-        <v>124802</v>
+        <v>136082</v>
       </c>
       <c r="C232" s="4">
         <v>0.01</v>
       </c>
       <c r="D232" s="3">
         <f t="shared" si="6"/>
-        <v>1248.02</v>
+        <v>1360.82</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
@@ -4236,14 +4414,14 @@
       </c>
       <c r="B233" s="9">
         <f t="shared" si="7"/>
-        <v>126050</v>
+        <v>137443</v>
       </c>
       <c r="C233" s="4">
         <v>0.01</v>
       </c>
       <c r="D233" s="3">
         <f t="shared" si="6"/>
-        <v>1260.5</v>
+        <v>1374.43</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
@@ -4252,14 +4430,14 @@
       </c>
       <c r="B234" s="9">
         <f t="shared" si="7"/>
-        <v>127311</v>
+        <v>138817</v>
       </c>
       <c r="C234" s="4">
         <v>0.01</v>
       </c>
       <c r="D234" s="3">
         <f t="shared" si="6"/>
-        <v>1273.1100000000001</v>
+        <v>1388.17</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
@@ -4268,14 +4446,14 @@
       </c>
       <c r="B235" s="9">
         <f t="shared" si="7"/>
-        <v>128584</v>
+        <v>140205</v>
       </c>
       <c r="C235" s="4">
         <v>0.01</v>
       </c>
       <c r="D235" s="3">
         <f t="shared" si="6"/>
-        <v>1285.8399999999999</v>
+        <v>1402.05</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
@@ -4284,14 +4462,14 @@
       </c>
       <c r="B236" s="9">
         <f t="shared" si="7"/>
-        <v>129870</v>
+        <v>141607</v>
       </c>
       <c r="C236" s="4">
         <v>0.01</v>
       </c>
       <c r="D236" s="3">
         <f t="shared" si="6"/>
-        <v>1298.7</v>
+        <v>1416.07</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
@@ -4300,14 +4478,14 @@
       </c>
       <c r="B237" s="9">
         <f t="shared" si="7"/>
-        <v>131169</v>
-      </c>
-      <c r="C237" s="4">
-        <v>0.01</v>
+        <v>143023</v>
+      </c>
+      <c r="C237" s="7">
+        <v>0</v>
       </c>
       <c r="D237" s="3">
         <f t="shared" si="6"/>
-        <v>1311.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
@@ -4316,14 +4494,14 @@
       </c>
       <c r="B238" s="9">
         <f t="shared" si="7"/>
-        <v>132481</v>
-      </c>
-      <c r="C238" s="4">
-        <v>0.01</v>
+        <v>143023</v>
+      </c>
+      <c r="C238" s="7">
+        <v>0</v>
       </c>
       <c r="D238" s="3">
         <f t="shared" si="6"/>
-        <v>1324.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
@@ -4332,14 +4510,14 @@
       </c>
       <c r="B239" s="9">
         <f t="shared" si="7"/>
-        <v>133806</v>
+        <v>143023</v>
       </c>
       <c r="C239" s="4">
         <v>0.01</v>
       </c>
       <c r="D239" s="3">
         <f t="shared" si="6"/>
-        <v>1338.06</v>
+        <v>1430.23</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
@@ -4348,14 +4526,14 @@
       </c>
       <c r="B240" s="9">
         <f t="shared" si="7"/>
-        <v>135144</v>
+        <v>144453</v>
       </c>
       <c r="C240" s="4">
         <v>0.01</v>
       </c>
       <c r="D240" s="3">
         <f t="shared" si="6"/>
-        <v>1351.44</v>
+        <v>1444.53</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
@@ -4364,14 +4542,14 @@
       </c>
       <c r="B241" s="9">
         <f t="shared" si="7"/>
-        <v>136495</v>
+        <v>145898</v>
       </c>
       <c r="C241" s="4">
         <v>0.01</v>
       </c>
       <c r="D241" s="3">
         <f t="shared" si="6"/>
-        <v>1364.95</v>
+        <v>1458.98</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
@@ -4380,14 +4558,14 @@
       </c>
       <c r="B242" s="9">
         <f t="shared" si="7"/>
-        <v>137860</v>
+        <v>147357</v>
       </c>
       <c r="C242" s="4">
         <v>0.01</v>
       </c>
       <c r="D242" s="3">
         <f t="shared" si="6"/>
-        <v>1378.6000000000001</v>
+        <v>1473.57</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
@@ -4396,14 +4574,14 @@
       </c>
       <c r="B243" s="9">
         <f t="shared" si="7"/>
-        <v>139239</v>
+        <v>148831</v>
       </c>
       <c r="C243" s="4">
         <v>0.01</v>
       </c>
       <c r="D243" s="3">
         <f t="shared" si="6"/>
-        <v>1392.39</v>
+        <v>1488.31</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
@@ -4412,14 +4590,14 @@
       </c>
       <c r="B244" s="9">
         <f t="shared" si="7"/>
-        <v>140631</v>
-      </c>
-      <c r="C244" s="4">
-        <v>0.01</v>
+        <v>150319</v>
+      </c>
+      <c r="C244" s="7">
+        <v>0</v>
       </c>
       <c r="D244" s="3">
         <f t="shared" si="6"/>
-        <v>1406.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
@@ -4428,14 +4606,14 @@
       </c>
       <c r="B245" s="9">
         <f t="shared" si="7"/>
-        <v>142037</v>
-      </c>
-      <c r="C245" s="4">
-        <v>0.01</v>
+        <v>150319</v>
+      </c>
+      <c r="C245" s="7">
+        <v>0</v>
       </c>
       <c r="D245" s="3">
         <f t="shared" si="6"/>
-        <v>1420.3700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
@@ -4444,14 +4622,14 @@
       </c>
       <c r="B246" s="9">
         <f t="shared" si="7"/>
-        <v>143457</v>
+        <v>150319</v>
       </c>
       <c r="C246" s="4">
         <v>0.01</v>
       </c>
       <c r="D246" s="3">
         <f t="shared" si="6"/>
-        <v>1434.57</v>
+        <v>1503.19</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
@@ -4460,14 +4638,14 @@
       </c>
       <c r="B247" s="9">
         <f t="shared" si="7"/>
-        <v>144892</v>
+        <v>151822</v>
       </c>
       <c r="C247" s="4">
         <v>0.01</v>
       </c>
       <c r="D247" s="3">
         <f t="shared" si="6"/>
-        <v>1448.92</v>
+        <v>1518.22</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
@@ -4476,14 +4654,14 @@
       </c>
       <c r="B248" s="9">
         <f t="shared" si="7"/>
-        <v>146341</v>
+        <v>153340</v>
       </c>
       <c r="C248" s="4">
         <v>0.01</v>
       </c>
       <c r="D248" s="3">
         <f t="shared" si="6"/>
-        <v>1463.41</v>
+        <v>1533.4</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
@@ -4492,14 +4670,14 @@
       </c>
       <c r="B249" s="9">
         <f t="shared" si="7"/>
-        <v>147804</v>
+        <v>154873</v>
       </c>
       <c r="C249" s="4">
         <v>0.01</v>
       </c>
       <c r="D249" s="3">
         <f t="shared" si="6"/>
-        <v>1478.04</v>
+        <v>1548.73</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
@@ -4508,14 +4686,14 @@
       </c>
       <c r="B250" s="9">
         <f t="shared" si="7"/>
-        <v>149282</v>
+        <v>156422</v>
       </c>
       <c r="C250" s="4">
         <v>0.01</v>
       </c>
       <c r="D250" s="3">
         <f t="shared" si="6"/>
-        <v>1492.82</v>
+        <v>1564.22</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
@@ -4524,14 +4702,14 @@
       </c>
       <c r="B251" s="9">
         <f t="shared" si="7"/>
-        <v>150775</v>
-      </c>
-      <c r="C251" s="4">
-        <v>0.01</v>
+        <v>157986</v>
+      </c>
+      <c r="C251" s="7">
+        <v>0</v>
       </c>
       <c r="D251" s="3">
         <f t="shared" si="6"/>
-        <v>1507.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
@@ -4540,14 +4718,14 @@
       </c>
       <c r="B252" s="9">
         <f t="shared" si="7"/>
-        <v>152283</v>
-      </c>
-      <c r="C252" s="4">
-        <v>0.01</v>
+        <v>157986</v>
+      </c>
+      <c r="C252" s="7">
+        <v>0</v>
       </c>
       <c r="D252" s="3">
         <f t="shared" si="6"/>
-        <v>1522.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
@@ -4556,14 +4734,14 @@
       </c>
       <c r="B253" s="9">
         <f t="shared" si="7"/>
-        <v>153806</v>
+        <v>157986</v>
       </c>
       <c r="C253" s="4">
         <v>0.01</v>
       </c>
       <c r="D253" s="3">
         <f t="shared" si="6"/>
-        <v>1538.06</v>
+        <v>1579.8600000000001</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
@@ -4572,14 +4750,14 @@
       </c>
       <c r="B254" s="9">
         <f t="shared" si="7"/>
-        <v>155344</v>
+        <v>159566</v>
       </c>
       <c r="C254" s="4">
         <v>0.01</v>
       </c>
       <c r="D254" s="3">
         <f t="shared" si="6"/>
-        <v>1553.44</v>
+        <v>1595.66</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -4588,14 +4766,14 @@
       </c>
       <c r="B255" s="9">
         <f t="shared" si="7"/>
-        <v>156897</v>
+        <v>161162</v>
       </c>
       <c r="C255" s="4">
         <v>0.01</v>
       </c>
       <c r="D255" s="3">
         <f t="shared" si="6"/>
-        <v>1568.97</v>
+        <v>1611.6200000000001</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
@@ -4604,14 +4782,14 @@
       </c>
       <c r="B256" s="9">
         <f t="shared" si="7"/>
-        <v>158466</v>
+        <v>162774</v>
       </c>
       <c r="C256" s="4">
         <v>0.01</v>
       </c>
       <c r="D256" s="3">
         <f t="shared" si="6"/>
-        <v>1584.66</v>
+        <v>1627.74</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
@@ -4620,14 +4798,14 @@
       </c>
       <c r="B257" s="9">
         <f t="shared" si="7"/>
-        <v>160051</v>
+        <v>164402</v>
       </c>
       <c r="C257" s="4">
         <v>0.01</v>
       </c>
       <c r="D257" s="3">
         <f t="shared" si="6"/>
-        <v>1600.51</v>
+        <v>1644.02</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
@@ -4636,14 +4814,14 @@
       </c>
       <c r="B258" s="9">
         <f t="shared" si="7"/>
-        <v>161652</v>
-      </c>
-      <c r="C258" s="4">
-        <v>0.01</v>
+        <v>166046</v>
+      </c>
+      <c r="C258" s="7">
+        <v>0</v>
       </c>
       <c r="D258" s="3">
         <f t="shared" si="6"/>
-        <v>1616.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
@@ -4652,14 +4830,14 @@
       </c>
       <c r="B259" s="9">
         <f t="shared" si="7"/>
-        <v>163269</v>
-      </c>
-      <c r="C259" s="4">
-        <v>0.01</v>
+        <v>166046</v>
+      </c>
+      <c r="C259" s="7">
+        <v>0</v>
       </c>
       <c r="D259" s="3">
         <f t="shared" ref="D259:D305" si="8">B259*C259</f>
-        <v>1632.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
@@ -4668,14 +4846,14 @@
       </c>
       <c r="B260" s="9">
         <f t="shared" ref="B260:B305" si="9">ROUND(B259*(1+C259),0)</f>
-        <v>164902</v>
+        <v>166046</v>
       </c>
       <c r="C260" s="4">
         <v>0.01</v>
       </c>
       <c r="D260" s="3">
         <f t="shared" si="8"/>
-        <v>1649.02</v>
+        <v>1660.46</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
@@ -4684,14 +4862,14 @@
       </c>
       <c r="B261" s="9">
         <f t="shared" si="9"/>
-        <v>166551</v>
+        <v>167706</v>
       </c>
       <c r="C261" s="4">
         <v>0.01</v>
       </c>
       <c r="D261" s="3">
         <f t="shared" si="8"/>
-        <v>1665.51</v>
+        <v>1677.06</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
@@ -4700,14 +4878,14 @@
       </c>
       <c r="B262" s="9">
         <f t="shared" si="9"/>
-        <v>168217</v>
+        <v>169383</v>
       </c>
       <c r="C262" s="4">
         <v>0.01</v>
       </c>
       <c r="D262" s="3">
         <f t="shared" si="8"/>
-        <v>1682.17</v>
+        <v>1693.83</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
@@ -4716,14 +4894,14 @@
       </c>
       <c r="B263" s="9">
         <f t="shared" si="9"/>
-        <v>169899</v>
+        <v>171077</v>
       </c>
       <c r="C263" s="4">
         <v>0.01</v>
       </c>
       <c r="D263" s="3">
         <f t="shared" si="8"/>
-        <v>1698.99</v>
+        <v>1710.77</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
@@ -4732,14 +4910,14 @@
       </c>
       <c r="B264" s="9">
         <f t="shared" si="9"/>
-        <v>171598</v>
+        <v>172788</v>
       </c>
       <c r="C264" s="4">
         <v>0.01</v>
       </c>
       <c r="D264" s="3">
         <f t="shared" si="8"/>
-        <v>1715.98</v>
+        <v>1727.88</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
@@ -4748,14 +4926,14 @@
       </c>
       <c r="B265" s="9">
         <f t="shared" si="9"/>
-        <v>173314</v>
-      </c>
-      <c r="C265" s="4">
-        <v>0.01</v>
+        <v>174516</v>
+      </c>
+      <c r="C265" s="7">
+        <v>0</v>
       </c>
       <c r="D265" s="3">
         <f t="shared" si="8"/>
-        <v>1733.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
@@ -4764,14 +4942,14 @@
       </c>
       <c r="B266" s="9">
         <f t="shared" si="9"/>
-        <v>175047</v>
-      </c>
-      <c r="C266" s="4">
-        <v>0.01</v>
+        <v>174516</v>
+      </c>
+      <c r="C266" s="7">
+        <v>0</v>
       </c>
       <c r="D266" s="3">
         <f t="shared" si="8"/>
-        <v>1750.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
@@ -4780,14 +4958,14 @@
       </c>
       <c r="B267" s="9">
         <f t="shared" si="9"/>
-        <v>176797</v>
+        <v>174516</v>
       </c>
       <c r="C267" s="4">
         <v>0.01</v>
       </c>
       <c r="D267" s="3">
         <f t="shared" si="8"/>
-        <v>1767.97</v>
+        <v>1745.16</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
@@ -4796,14 +4974,14 @@
       </c>
       <c r="B268" s="9">
         <f t="shared" si="9"/>
-        <v>178565</v>
+        <v>176261</v>
       </c>
       <c r="C268" s="4">
         <v>0.01</v>
       </c>
       <c r="D268" s="3">
         <f t="shared" si="8"/>
-        <v>1785.65</v>
+        <v>1762.6100000000001</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
@@ -4812,14 +4990,14 @@
       </c>
       <c r="B269" s="9">
         <f t="shared" si="9"/>
-        <v>180351</v>
+        <v>178024</v>
       </c>
       <c r="C269" s="4">
         <v>0.01</v>
       </c>
       <c r="D269" s="3">
         <f t="shared" si="8"/>
-        <v>1803.51</v>
+        <v>1780.24</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
@@ -4828,14 +5006,14 @@
       </c>
       <c r="B270" s="9">
         <f t="shared" si="9"/>
-        <v>182155</v>
+        <v>179804</v>
       </c>
       <c r="C270" s="4">
         <v>0.01</v>
       </c>
       <c r="D270" s="3">
         <f t="shared" si="8"/>
-        <v>1821.55</v>
+        <v>1798.04</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
@@ -4844,14 +5022,14 @@
       </c>
       <c r="B271" s="9">
         <f t="shared" si="9"/>
-        <v>183977</v>
+        <v>181602</v>
       </c>
       <c r="C271" s="4">
         <v>0.01</v>
       </c>
       <c r="D271" s="3">
         <f t="shared" si="8"/>
-        <v>1839.77</v>
+        <v>1816.02</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
@@ -4860,14 +5038,14 @@
       </c>
       <c r="B272" s="9">
         <f t="shared" si="9"/>
-        <v>185817</v>
-      </c>
-      <c r="C272" s="4">
-        <v>0.01</v>
+        <v>183418</v>
+      </c>
+      <c r="C272" s="7">
+        <v>0</v>
       </c>
       <c r="D272" s="3">
         <f t="shared" si="8"/>
-        <v>1858.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
@@ -4876,14 +5054,14 @@
       </c>
       <c r="B273" s="9">
         <f t="shared" si="9"/>
-        <v>187675</v>
-      </c>
-      <c r="C273" s="4">
-        <v>0.01</v>
+        <v>183418</v>
+      </c>
+      <c r="C273" s="7">
+        <v>0</v>
       </c>
       <c r="D273" s="3">
         <f t="shared" si="8"/>
-        <v>1876.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
@@ -4892,14 +5070,14 @@
       </c>
       <c r="B274" s="9">
         <f t="shared" si="9"/>
-        <v>189552</v>
+        <v>183418</v>
       </c>
       <c r="C274" s="4">
         <v>0.01</v>
       </c>
       <c r="D274" s="3">
         <f t="shared" si="8"/>
-        <v>1895.52</v>
+        <v>1834.18</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
@@ -4908,14 +5086,14 @@
       </c>
       <c r="B275" s="9">
         <f t="shared" si="9"/>
-        <v>191448</v>
+        <v>185252</v>
       </c>
       <c r="C275" s="4">
         <v>0.01</v>
       </c>
       <c r="D275" s="3">
         <f t="shared" si="8"/>
-        <v>1914.48</v>
+        <v>1852.52</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
@@ -4924,14 +5102,14 @@
       </c>
       <c r="B276" s="9">
         <f t="shared" si="9"/>
-        <v>193362</v>
+        <v>187105</v>
       </c>
       <c r="C276" s="4">
         <v>0.01</v>
       </c>
       <c r="D276" s="3">
         <f t="shared" si="8"/>
-        <v>1933.6200000000001</v>
+        <v>1871.05</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -4940,14 +5118,14 @@
       </c>
       <c r="B277" s="9">
         <f t="shared" si="9"/>
-        <v>195296</v>
+        <v>188976</v>
       </c>
       <c r="C277" s="4">
         <v>0.01</v>
       </c>
       <c r="D277" s="3">
         <f t="shared" si="8"/>
-        <v>1952.96</v>
+        <v>1889.76</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
@@ -4956,14 +5134,14 @@
       </c>
       <c r="B278" s="9">
         <f t="shared" si="9"/>
-        <v>197249</v>
+        <v>190866</v>
       </c>
       <c r="C278" s="4">
         <v>0.01</v>
       </c>
       <c r="D278" s="3">
         <f t="shared" si="8"/>
-        <v>1972.49</v>
+        <v>1908.66</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
@@ -4972,14 +5150,14 @@
       </c>
       <c r="B279" s="9">
         <f t="shared" si="9"/>
-        <v>199221</v>
-      </c>
-      <c r="C279" s="4">
-        <v>0.01</v>
+        <v>192775</v>
+      </c>
+      <c r="C279" s="7">
+        <v>0</v>
       </c>
       <c r="D279" s="3">
         <f t="shared" si="8"/>
-        <v>1992.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
@@ -4988,14 +5166,14 @@
       </c>
       <c r="B280" s="9">
         <f t="shared" si="9"/>
-        <v>201213</v>
-      </c>
-      <c r="C280" s="4">
-        <v>0.01</v>
+        <v>192775</v>
+      </c>
+      <c r="C280" s="7">
+        <v>0</v>
       </c>
       <c r="D280" s="3">
         <f t="shared" si="8"/>
-        <v>2012.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
@@ -5004,14 +5182,14 @@
       </c>
       <c r="B281" s="9">
         <f t="shared" si="9"/>
-        <v>203225</v>
+        <v>192775</v>
       </c>
       <c r="C281" s="4">
         <v>0.01</v>
       </c>
       <c r="D281" s="3">
         <f t="shared" si="8"/>
-        <v>2032.25</v>
+        <v>1927.75</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
@@ -5020,14 +5198,14 @@
       </c>
       <c r="B282" s="9">
         <f t="shared" si="9"/>
-        <v>205257</v>
+        <v>194703</v>
       </c>
       <c r="C282" s="4">
         <v>0.01</v>
       </c>
       <c r="D282" s="3">
         <f t="shared" si="8"/>
-        <v>2052.5700000000002</v>
+        <v>1947.03</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
@@ -5036,14 +5214,14 @@
       </c>
       <c r="B283" s="9">
         <f t="shared" si="9"/>
-        <v>207310</v>
+        <v>196650</v>
       </c>
       <c r="C283" s="4">
         <v>0.01</v>
       </c>
       <c r="D283" s="3">
         <f t="shared" si="8"/>
-        <v>2073.1</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
@@ -5052,14 +5230,14 @@
       </c>
       <c r="B284" s="9">
         <f t="shared" si="9"/>
-        <v>209383</v>
+        <v>198617</v>
       </c>
       <c r="C284" s="4">
         <v>0.01</v>
       </c>
       <c r="D284" s="3">
         <f t="shared" si="8"/>
-        <v>2093.83</v>
+        <v>1986.17</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
@@ -5068,14 +5246,14 @@
       </c>
       <c r="B285" s="9">
         <f t="shared" si="9"/>
-        <v>211477</v>
+        <v>200603</v>
       </c>
       <c r="C285" s="4">
         <v>0.01</v>
       </c>
       <c r="D285" s="3">
         <f t="shared" si="8"/>
-        <v>2114.77</v>
+        <v>2006.03</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
@@ -5084,14 +5262,14 @@
       </c>
       <c r="B286" s="9">
         <f t="shared" si="9"/>
-        <v>213592</v>
+        <v>202609</v>
       </c>
       <c r="C286" s="4">
         <v>0.01</v>
       </c>
       <c r="D286" s="3">
         <f t="shared" si="8"/>
-        <v>2135.92</v>
+        <v>2026.0900000000001</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
@@ -5100,14 +5278,14 @@
       </c>
       <c r="B287" s="9">
         <f t="shared" si="9"/>
-        <v>215728</v>
-      </c>
-      <c r="C287" s="4">
-        <v>0.01</v>
+        <v>204635</v>
+      </c>
+      <c r="C287" s="7">
+        <v>0</v>
       </c>
       <c r="D287" s="3">
         <f t="shared" si="8"/>
-        <v>2157.2800000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
@@ -5116,14 +5294,14 @@
       </c>
       <c r="B288" s="9">
         <f t="shared" si="9"/>
-        <v>217885</v>
-      </c>
-      <c r="C288" s="4">
-        <v>0.01</v>
+        <v>204635</v>
+      </c>
+      <c r="C288" s="7">
+        <v>0</v>
       </c>
       <c r="D288" s="3">
         <f t="shared" si="8"/>
-        <v>2178.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
@@ -5132,14 +5310,14 @@
       </c>
       <c r="B289" s="9">
         <f t="shared" si="9"/>
-        <v>220064</v>
+        <v>204635</v>
       </c>
       <c r="C289" s="4">
         <v>0.01</v>
       </c>
       <c r="D289" s="3">
         <f t="shared" si="8"/>
-        <v>2200.64</v>
+        <v>2046.3500000000001</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
@@ -5148,14 +5326,14 @@
       </c>
       <c r="B290" s="9">
         <f t="shared" si="9"/>
-        <v>222265</v>
+        <v>206681</v>
       </c>
       <c r="C290" s="4">
         <v>0.01</v>
       </c>
       <c r="D290" s="3">
         <f t="shared" si="8"/>
-        <v>2222.65</v>
+        <v>2066.81</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
@@ -5164,14 +5342,14 @@
       </c>
       <c r="B291" s="9">
         <f t="shared" si="9"/>
-        <v>224488</v>
+        <v>208748</v>
       </c>
       <c r="C291" s="4">
         <v>0.01</v>
       </c>
       <c r="D291" s="3">
         <f t="shared" si="8"/>
-        <v>2244.88</v>
+        <v>2087.48</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
@@ -5180,14 +5358,14 @@
       </c>
       <c r="B292" s="9">
         <f t="shared" si="9"/>
-        <v>226733</v>
+        <v>210835</v>
       </c>
       <c r="C292" s="4">
         <v>0.01</v>
       </c>
       <c r="D292" s="3">
         <f t="shared" si="8"/>
-        <v>2267.33</v>
+        <v>2108.35</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
@@ -5196,14 +5374,14 @@
       </c>
       <c r="B293" s="9">
         <f t="shared" si="9"/>
-        <v>229000</v>
+        <v>212943</v>
       </c>
       <c r="C293" s="4">
         <v>0.01</v>
       </c>
       <c r="D293" s="3">
         <f t="shared" si="8"/>
-        <v>2290</v>
+        <v>2129.4299999999998</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
@@ -5212,14 +5390,14 @@
       </c>
       <c r="B294" s="9">
         <f t="shared" si="9"/>
-        <v>231290</v>
-      </c>
-      <c r="C294" s="4">
-        <v>0.01</v>
+        <v>215072</v>
+      </c>
+      <c r="C294" s="7">
+        <v>0</v>
       </c>
       <c r="D294" s="3">
         <f t="shared" si="8"/>
-        <v>2312.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
@@ -5228,14 +5406,14 @@
       </c>
       <c r="B295" s="9">
         <f t="shared" si="9"/>
-        <v>233603</v>
-      </c>
-      <c r="C295" s="4">
-        <v>0.01</v>
+        <v>215072</v>
+      </c>
+      <c r="C295" s="7">
+        <v>0</v>
       </c>
       <c r="D295" s="3">
         <f t="shared" si="8"/>
-        <v>2336.0300000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
@@ -5244,14 +5422,14 @@
       </c>
       <c r="B296" s="9">
         <f t="shared" si="9"/>
-        <v>235939</v>
+        <v>215072</v>
       </c>
       <c r="C296" s="4">
         <v>0.01</v>
       </c>
       <c r="D296" s="3">
         <f t="shared" si="8"/>
-        <v>2359.39</v>
+        <v>2150.7200000000003</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
@@ -5260,14 +5438,14 @@
       </c>
       <c r="B297" s="9">
         <f t="shared" si="9"/>
-        <v>238298</v>
+        <v>217223</v>
       </c>
       <c r="C297" s="4">
         <v>0.01</v>
       </c>
       <c r="D297" s="3">
         <f t="shared" si="8"/>
-        <v>2382.98</v>
+        <v>2172.23</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
@@ -5276,14 +5454,14 @@
       </c>
       <c r="B298" s="9">
         <f t="shared" si="9"/>
-        <v>240681</v>
+        <v>219395</v>
       </c>
       <c r="C298" s="4">
         <v>0.01</v>
       </c>
       <c r="D298" s="3">
         <f t="shared" si="8"/>
-        <v>2406.81</v>
+        <v>2193.9500000000003</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
@@ -5292,14 +5470,14 @@
       </c>
       <c r="B299" s="9">
         <f t="shared" si="9"/>
-        <v>243088</v>
+        <v>221589</v>
       </c>
       <c r="C299" s="4">
         <v>0.01</v>
       </c>
       <c r="D299" s="3">
         <f t="shared" si="8"/>
-        <v>2430.88</v>
+        <v>2215.89</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
@@ -5308,14 +5486,14 @@
       </c>
       <c r="B300" s="9">
         <f t="shared" si="9"/>
-        <v>245519</v>
+        <v>223805</v>
       </c>
       <c r="C300" s="4">
         <v>0.01</v>
       </c>
       <c r="D300" s="3">
         <f t="shared" si="8"/>
-        <v>2455.19</v>
+        <v>2238.0500000000002</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
@@ -5324,14 +5502,14 @@
       </c>
       <c r="B301" s="9">
         <f t="shared" si="9"/>
-        <v>247974</v>
-      </c>
-      <c r="C301" s="4">
-        <v>0.01</v>
+        <v>226043</v>
+      </c>
+      <c r="C301" s="7">
+        <v>0</v>
       </c>
       <c r="D301" s="3">
         <f t="shared" si="8"/>
-        <v>2479.7400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
@@ -5340,14 +5518,14 @@
       </c>
       <c r="B302" s="9">
         <f t="shared" si="9"/>
-        <v>250454</v>
-      </c>
-      <c r="C302" s="4">
-        <v>0.01</v>
+        <v>226043</v>
+      </c>
+      <c r="C302" s="7">
+        <v>0</v>
       </c>
       <c r="D302" s="3">
         <f t="shared" si="8"/>
-        <v>2504.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
@@ -5356,14 +5534,14 @@
       </c>
       <c r="B303" s="9">
         <f t="shared" si="9"/>
-        <v>252959</v>
+        <v>226043</v>
       </c>
       <c r="C303" s="4">
         <v>0.01</v>
       </c>
       <c r="D303" s="3">
         <f t="shared" si="8"/>
-        <v>2529.59</v>
+        <v>2260.4299999999998</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
@@ -5372,14 +5550,14 @@
       </c>
       <c r="B304" s="9">
         <f t="shared" si="9"/>
-        <v>255489</v>
+        <v>228303</v>
       </c>
       <c r="C304" s="4">
         <v>0.01</v>
       </c>
       <c r="D304" s="3">
         <f t="shared" si="8"/>
-        <v>2554.89</v>
+        <v>2283.0300000000002</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
@@ -5388,14 +5566,14 @@
       </c>
       <c r="B305" s="9">
         <f t="shared" si="9"/>
-        <v>258044</v>
+        <v>230586</v>
       </c>
       <c r="C305" s="4">
         <v>0.01</v>
       </c>
       <c r="D305" s="3">
         <f t="shared" si="8"/>
-        <v>2580.44</v>
+        <v>2305.86</v>
       </c>
     </row>
   </sheetData>

--- a/StockDay.xlsx
+++ b/StockDay.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -885,14 +885,14 @@
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>567.54000000000087</v>
+        <v>734.54000000000087</v>
       </c>
       <c r="G9" s="19">
         <f>(H9-H8-J8)/H8</f>
-        <v>1.9317058227891214E-2</v>
+        <v>2.500114873086515E-2</v>
       </c>
       <c r="H9" s="17">
-        <v>29947.79</v>
+        <v>30114.79</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>IF(G9&gt;D9,"OK","NO")</f>
@@ -7853,7 +7853,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8031,7 +8031,7 @@
         <v>261.20999999999998</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f t="shared" ref="I5:I8" si="2">IF(G5&gt;=D5,"OK","NO")</f>
+        <f t="shared" ref="I5:I9" si="2">IF(G5&gt;=D5,"OK","NO")</f>
         <v>OK</v>
       </c>
       <c r="J5">
@@ -8058,11 +8058,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" ref="F6:F8" si="4">H6-H5</f>
+        <f t="shared" ref="F6:F9" si="4">H6-H5</f>
         <v>0</v>
       </c>
       <c r="G6" s="19">
-        <f t="shared" ref="G6:G8" si="5">(H6-H5)/H5</f>
+        <f t="shared" ref="G6:G9" si="5">(H6-H5)/H5</f>
         <v>0</v>
       </c>
       <c r="H6" s="17">
@@ -8171,9 +8171,24 @@
         <f t="shared" si="0"/>
         <v>2.67</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="17">
+        <f t="shared" si="4"/>
+        <v>14.069999999999993</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="5"/>
+        <v>5.2688735769922078E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>281.11</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">

--- a/StockDay.xlsx
+++ b/StockDay.xlsx
@@ -7853,7 +7853,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8173,14 +8173,14 @@
       </c>
       <c r="F9" s="17">
         <f t="shared" si="4"/>
-        <v>14.069999999999993</v>
+        <v>17.669999999999959</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" si="5"/>
-        <v>5.2688735769922078E-2</v>
+        <v>6.6169862192929738E-2</v>
       </c>
       <c r="H9" s="17">
-        <v>281.11</v>
+        <v>284.70999999999998</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
